--- a/ExcelFileFolder/VanguardDB.xlsx
+++ b/ExcelFileFolder/VanguardDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator (Beta)" sheetId="1" r:id="rId1"/>
@@ -13350,7 +13350,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/ExcelFileFolder/VanguardDB.xlsx
+++ b/ExcelFileFolder/VanguardDB.xlsx
@@ -1,808 +1,808 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\source\repos\Vanguard\ExcelFileFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="7"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Calculator (Beta)" sheetId="1" r:id="rId1"/>
-    <sheet name="Armory" sheetId="2" r:id="rId2"/>
-    <sheet name="Traits" sheetId="3" r:id="rId3"/>
-    <sheet name="Tables" sheetId="4" r:id="rId4"/>
-    <sheet name="VersionDB" sheetId="5" r:id="rId5"/>
-    <sheet name="WeaponsDB" sheetId="6" r:id="rId6"/>
-    <sheet name="ArmorDB" sheetId="7" r:id="rId7"/>
-    <sheet name="TestsDB" sheetId="8" r:id="rId8"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tables!$A$24:$B$46</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="7"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Calculator (Beta)" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Armory" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Traits" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Tables" sheetId="4" r:id="rId4"/>
+    <x:sheet name="VersionDB" sheetId="5" r:id="rId5"/>
+    <x:sheet name="WeaponsDB" sheetId="6" r:id="rId6"/>
+    <x:sheet name="ArmorDB" sheetId="7" r:id="rId7"/>
+    <x:sheet name="TestsDB" sheetId="8" r:id="rId8"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tables!$A$24:$B$46</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Ranged Weapons</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Ranged</t>
-  </si>
-  <si>
-    <t>Melee</t>
-  </si>
-  <si>
-    <t>Aptitude</t>
-  </si>
-  <si>
-    <t>Trait 1</t>
-  </si>
-  <si>
-    <t>Trait 2</t>
-  </si>
-  <si>
-    <t>Trait 3</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Range Target Numbers</t>
-  </si>
-  <si>
-    <t>Cost in D</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t>Short 1-8”</t>
-  </si>
-  <si>
-    <t>Medium 8-18”</t>
-  </si>
-  <si>
-    <t>Long 18”+</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Pistol</t>
-  </si>
-  <si>
-    <t>Rifle</t>
-  </si>
-  <si>
-    <t>Two Handed</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>SMG</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>May re-roll up to 2 Blank Results during a Ranged Attack action</t>
-  </si>
-  <si>
-    <t>When using an Overwatch Action, this character reacts to enemy activity in a full 360 degree arc.</t>
-  </si>
-  <si>
-    <t>Assault Rifle</t>
-  </si>
-  <si>
-    <t>Nerves of Steel</t>
-  </si>
-  <si>
-    <t>May re-roll up to 2 Blank or D results during a Ranged Attack action, Two Handed</t>
-  </si>
-  <si>
-    <t>Dual Wielding (Ranged)</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>pts</t>
-  </si>
-  <si>
-    <t>Sniper Rifle</t>
-  </si>
-  <si>
-    <t>Careful Aim</t>
-  </si>
-  <si>
-    <t>Ignore the penalty for firing shots on Overwatch</t>
-  </si>
-  <si>
-    <t>Shotgun</t>
-  </si>
-  <si>
-    <t>At Short Range, Pierce Results can’t be cancelled, Two Handed</t>
-  </si>
-  <si>
-    <t>Pistol and Hand Weapon</t>
-  </si>
-  <si>
-    <t>Disciplined Overwatch</t>
-  </si>
-  <si>
-    <t>May be used without a Dual Wielding Trait, counts as a single Weapon choice, Two Handed</t>
-  </si>
-  <si>
-    <t>When using an Overwatch Action, this character may choose whether or not to remove their Overwatch token and fire when an enemy enters their field of view.</t>
-  </si>
-  <si>
-    <t>Melee Weapons</t>
-  </si>
-  <si>
-    <t>Dual Wielding Ranged</t>
-  </si>
-  <si>
-    <t>Allows a character to equip 2 one-handed ranged weapons. A character may use this Trait to fire both weapons as a single Ranged Attack action at one target generating two Green Bonus dice. Alternatively, they may be fired at two separate targets in which case each shot is resolved as a separate Ranged Attack Action each generating one Yellow Penalty die.</t>
-  </si>
-  <si>
-    <t>Hand Weapon</t>
-  </si>
-  <si>
-    <t>Entrench</t>
-  </si>
-  <si>
-    <t>Spend an entire activation (uses both your movement and your action) to set up a defensive position, gaining +1 Armor. You cannot move while entrenched. You use the Operate action to dismantle the defensive position before being able to move again. Being entrenched also counts as being in Cover.</t>
-  </si>
-  <si>
-    <t>Hand Axe, Mace, Knife, etc</t>
-  </si>
-  <si>
-    <t>Headshot</t>
-  </si>
-  <si>
-    <t>When a character with this Trait rolls at least two times more Hit results than their Range Target # during a Ranged Attack action, they may use this Trait to make Shaken results count as Bloodied and Bloodied Results count as Out of Action.</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>May re-roll up to two Blank or Determination results during a Melee Attack action</t>
-  </si>
-  <si>
-    <t>Killshot</t>
-  </si>
-  <si>
-    <t>Great Weapon</t>
-  </si>
-  <si>
-    <t>After causing an Out of Action result with a Ranged Attack, you may immediately make an additional Ranged Attack with one Yellow Penalty die.</t>
-  </si>
-  <si>
-    <t>Pierce Results can’t be canceled, Two-Handed</t>
-  </si>
-  <si>
-    <t>Polearm</t>
-  </si>
-  <si>
-    <t>May use a Ranged Attack action with a Target # of 2 when within 2” of target but not Engaged in Melee. Roll a Melee Test instead of Ranged Test for this Attack.</t>
-  </si>
-  <si>
-    <t>Sharpshooter</t>
-  </si>
-  <si>
-    <t>Improvised Weapon</t>
-  </si>
-  <si>
-    <t>A character may use this Trait when using a Ranged Attack Action. This allows them to adjust one range category up to 4” in either direction. (Short could extend up to 12” or medium could extend down to 4”, etc.)</t>
-  </si>
-  <si>
-    <t>Anything not meant to be a weapon that could still hurt someone - table leg, baseball bat, frying pan, etc</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Gain 1 Red Penalty Die as with Armor Upgrades. If all dice are allocated as Penalty Dice during a Melee Attack Action, + 1 Yellow die</t>
-  </si>
-  <si>
-    <t>Shoot from the Hip</t>
-  </si>
-  <si>
-    <t>After using a Run action, this character may also use a Ranged Attack Action generating 1 Yellow die.</t>
-  </si>
-  <si>
-    <t>1st Weapon:</t>
-  </si>
-  <si>
-    <t>Shoulder Straps</t>
-  </si>
-  <si>
-    <t>A character with this Trait may equip two weapons. Once during its activation, this character may swap their active weapon as a free action.</t>
-  </si>
-  <si>
-    <t>Bloodsucker</t>
-  </si>
-  <si>
-    <t>After inflicting a Bloodied result on an enemy character during a Melee Attack action, a Character may use this Trait to remove one of their Damage Tokens.</t>
-  </si>
-  <si>
-    <t>Combat Maneuver</t>
-  </si>
-  <si>
-    <t>After successfully hitting an enemy character during a Melee Attack action, this Trait may be used to push the Defender up to 2” in addition to dealing damage as normal. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</t>
-  </si>
-  <si>
-    <t>Deathblow</t>
-  </si>
-  <si>
-    <t>After causing an Out of Action result during a Melee Attack action, you may immediately make an additional Melee Attack action against another enemy in base contact with the usual penalty for additional attacks.</t>
-  </si>
-  <si>
-    <t>Defensive Expert</t>
-  </si>
-  <si>
-    <t>A character with this Trait may force their opponent to re-roll any one Regular or Bonus Die during a Melee Attack action.</t>
-  </si>
-  <si>
-    <t>Dual Wielding Melee</t>
-  </si>
-  <si>
-    <t>Allows a character to equip two one-handed melee weapons. A character may use this Trait when using a Melee Attack Action to generate a Green die and a Blue die. Alternatively, they may choose to use two seperate Melee Attack actions generating 1 Yellow die each.</t>
-  </si>
-  <si>
-    <t>Furious Charge</t>
-  </si>
-  <si>
-    <t>When this character uses the Charge Action, they may activate this Trait to increase their Melee Stat by 1 for the duration of their Activation.</t>
-  </si>
-  <si>
-    <t>Hit and Run</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait when they use a Withdraw or Melee Attack action. When Withdrawing, they may immediately use their Run action without rolling an Opposed Test against their opponent. When using a Melee Attack action, they may use a Run action immediately after the combat is resolved.</t>
-  </si>
-  <si>
-    <t>Quick Footed</t>
-  </si>
-  <si>
-    <t>After a Melee Attack action, this character may move up to 2” while maintaining base contact.</t>
-  </si>
-  <si>
-    <t>Yellow Armor Upgrades:</t>
-  </si>
-  <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Agile</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait at the beginning of their activation. The character ignores all difficult terrain penalties for the rest of its activation.</t>
-  </si>
-  <si>
-    <t>Bob and Weave</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait when they are declared the Target of a Ranged Attack action. They immediately change their stance from Standing to Prone or move up to 2”. Use the characters new position for the Ranged Attack action. If they are no longer within Line of Sight, the Active character may choose a new target.</t>
-  </si>
-  <si>
-    <t>Ranged Weapon Chart</t>
-  </si>
-  <si>
-    <t>Dynamic Entry</t>
-  </si>
-  <si>
-    <t>A character with this Trait may choose not to deploy at the beginning of a Mission. Instead, the controlling player may activate this Trait to deploy this character instead of activating one of its models on the board. The character may be deployed anywhere on the battlefield at least 6” away from any enemy characters. After deploying, the character may either use an action or move.</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Fast</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>A character with this Trait may move an additional two inches any time they move.</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Fly</t>
-  </si>
-  <si>
-    <t>Trait</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Characters with this Trait ignore terrain and other characters while moving but may not end their movement on top of other characters or on top of anything the model cannot be set on.</t>
-  </si>
-  <si>
-    <t>Hit the Deck</t>
-  </si>
-  <si>
-    <t>A character with this Trait may change from Prone to Standing or vice versa once per turn at no cost to their movement.</t>
-  </si>
-  <si>
-    <t>Jetpack</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait to immediately move up to 8”. This movement ignores all terrain penalties and allows the character to move vertically and horizontally through open air as though they were moving across open ground. The Character must end their movement on surface the model can stand on.</t>
-  </si>
-  <si>
-    <t>Red Armor Upgrades:</t>
-  </si>
-  <si>
-    <t>Pause and Fire</t>
-  </si>
-  <si>
-    <t>Ignore Difficult Terrain for Activation</t>
-  </si>
-  <si>
-    <t>A character with this Trait may split its movement before and after its Action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 360" Overwatch</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
-  </si>
-  <si>
-    <t>Ignore Damage effects until after first Out of Action result, then remove all Damage tokens and act normally</t>
-  </si>
-  <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Blood Sucker</t>
-  </si>
-  <si>
-    <t>A character with this Trait may be deployed anywhere on the battlefield more than 12” from an enemy character as long as they are out of Line of Sight. The character may also make an Aptitude Test with a Target # of 3 when deploying. On a success, the character may move up to 4” after all other models have been deployed but before the first turn begins.</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Remove a Damager Token after causing a Bloodied Result</t>
-  </si>
-  <si>
-    <t>When targeted by a Ranged Attack Action, go Prone or move up to 2"</t>
-  </si>
-  <si>
-    <t>Stay Low</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait at the beginning of their activation. They may then move at full speed while prone for the rest of their activation.</t>
-  </si>
-  <si>
-    <t>Overwatch does not generate Penalty Dice</t>
-  </si>
-  <si>
-    <t>After Hitting a Melee target, move them up to 2" away</t>
-  </si>
-  <si>
-    <t>Use a Melee Attack Action with 1 Yellow after causing an Out of Action Result</t>
-  </si>
-  <si>
-    <t>Melee Weapon Chart</t>
-  </si>
-  <si>
-    <t>Force Melee Opponent to re-roll a die</t>
-  </si>
-  <si>
-    <t>Sealth</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait anytime during their Activation. Until the start of this character’s next turn, it is no longer able to be targeted by an enemy character while at long range or while in cover at medium range. Entering short range, making a shooting action, or making an attack action ends this ability immediately. At the start of its next activation, this character may pay 3 Determination to remain in Stealth.</t>
-  </si>
-  <si>
-    <t>Plot Armor:</t>
-  </si>
-  <si>
-    <t>Choose to activate Overwatch or remain on Overwatch</t>
-  </si>
-  <si>
-    <t>Dual Wielding (Melee)</t>
-  </si>
-  <si>
-    <t>May Equip 2 Melee Weapons, Generate 1 Green and 1 Blue Die for 1 Target or 1 Yellow each for 2 Targets</t>
-  </si>
-  <si>
-    <t>May Equip 2 Ranged Weapons, Generate 2 Green Dice for 1 Target or 1 Yellow each for 2 Targets</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Deploy at least 6" away from enemy characters then move or use an action</t>
-  </si>
-  <si>
-    <t>Spend Activation to gain +1 Armor and Cover. No movement until using an Operate action.</t>
-  </si>
-  <si>
-    <t>Move +2" anytime you move</t>
-  </si>
-  <si>
-    <t>Ignore Terrain while moving, must end on clear ground</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Increase Melee Stat by 1 during a Charge Action</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait when they use a Recover Action. In addition to the normal Recover Action, automatically remove a Shaken token from a friendly character within 8”.</t>
-  </si>
-  <si>
-    <t>Increase Damage result when rolling twice as many hits as Target #.</t>
-  </si>
-  <si>
-    <t>Withdraw without rolling Opposed Melee. May Withdraw immediately after a Charge or Melee Attack action</t>
-  </si>
-  <si>
-    <t>Points Cost</t>
-  </si>
-  <si>
-    <t>Plot Armor</t>
-  </si>
-  <si>
-    <t>Change stance once per Turn for free</t>
-  </si>
-  <si>
-    <t>Mark Target</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait anytime during their Activation. Place a Token on an enemy in within line of sight. All Ranged Attack actions targeting that character generate one Green Die. This token may be removed by the targeted character by rolling a successful Aptitude Test with a target number of 3 after the character uses a Run action, changes their stance to Prone, or leaves the Line of Sight of the character that placed it there.</t>
-  </si>
-  <si>
-    <t>Insignificant</t>
-  </si>
-  <si>
-    <t>If Shaken or Bloodied, perform Recovery roll during Resolution Phase. If failed, character is knocked Out of Action</t>
-  </si>
-  <si>
-    <t>Move 8", ignoring Terrain, must end on clear ground</t>
-  </si>
-  <si>
-    <t>Just a Flesh Wound</t>
-  </si>
-  <si>
-    <t>General Restrictions</t>
-  </si>
-  <si>
-    <t>Ignore the effects of Shaken tokens</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait anytime they use a Recover Action. In addition to the normal Recover action, they may downgrade the damage status of any friendly character in base contact. Bloodied tokens are replaced with Shaken tokens, Shaken tokens are removed.</t>
-  </si>
-  <si>
-    <t>Use a Ranged Attack Action with 1 Yellow after causing an Out of Action Result</t>
-  </si>
-  <si>
-    <t>During a Recovery Action, remove a Shaken token from a Friendly character within 8"</t>
-  </si>
-  <si>
-    <t>Magical Adept</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>May spend 1 Determination to count a D result as a Hit or Pierce</t>
-  </si>
-  <si>
-    <t>Weapon Upgrades</t>
-  </si>
-  <si>
-    <t>Moral Support</t>
-  </si>
-  <si>
-    <t>A character with this Trait gains two determination tokens for each D result when using the Recover action.</t>
-  </si>
-  <si>
-    <t>Magical Aid</t>
-  </si>
-  <si>
-    <t>During a Recovery Action, D results can give other characters Determination tokens to spend as Hit or Pierce results</t>
-  </si>
-  <si>
-    <t>Magical Bolt</t>
-  </si>
-  <si>
-    <t>As an Action, make a Ranged Attack using Aptitude, D results may count as Hit or Pierce. T# 3 at any range</t>
-  </si>
-  <si>
-    <t>Sound the
- Advance</t>
-  </si>
-  <si>
-    <t>Magical Compel</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait when using the Run action. All friendly characters within 8” may immediately move up to 4”.</t>
-  </si>
-  <si>
-    <t>As an Action, spend X Determination tokens to move an enemy character within LoS up to X"</t>
-  </si>
-  <si>
-    <t>Characters may only take one weapon unless a Trait allows them to take two</t>
-  </si>
-  <si>
-    <t>Magical Explosion</t>
-  </si>
-  <si>
-    <t>As an action, choose a point within 12", Target all characters within 2" for Ranged Attack using Aptitude with T# 4, D results can count as Hit or Pierce results</t>
-  </si>
-  <si>
-    <t>Magical Healing</t>
-  </si>
-  <si>
-    <t>As an action, roll an Aptitude test. Use Hit and D results to heal characters within 3". 3 = Bloodied, 2 = Shaken</t>
-  </si>
-  <si>
-    <t>Ranged Weapon Upgrades:</t>
-  </si>
-  <si>
-    <t>Magical Shield</t>
-  </si>
-  <si>
-    <t>Squad Tactics</t>
-  </si>
-  <si>
-    <t>As an action, create a magical barrier 4" wide and 2" tall. Blocks LoS and Movment. Barrier disappears at start of next activation or when knocked OOA. May be maintained for 1 Determination each activation</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait immediately after another friendly character within 8” finishes its activation. This character may then carry out its Activation for the turn. This cannot be used to activate a character twice in a single Turn.</t>
-  </si>
-  <si>
-    <t>Yellow Armor Upgrades</t>
-  </si>
-  <si>
-    <t>Place a token on a character within LoS, all Ranged Attacks against that Target, generate 1 Green. Can be removed by an Aptitude Test with T# 3 after Run, leaving LoS, or going Prone</t>
-  </si>
-  <si>
-    <t>During a Recovery Action, downgrade Damage on a character in Base Contact</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Gain two Determination tokens for each D result during a Recovery action</t>
-  </si>
-  <si>
-    <t>Roll and Injury die before receiving a Shaken token. On a "+" result ignore the Damage</t>
-  </si>
-  <si>
-    <t>If a Character takes two weapons and one is Ranged, make sure the first one is the Ranged Weapon</t>
-  </si>
-  <si>
-    <t>Split movement before and after an Action</t>
-  </si>
-  <si>
-    <t>Red Armor Upgrades</t>
-  </si>
-  <si>
-    <t>This character ignores the negative modifiers for Bloodied or Shaken results until they are knocked Out of Action the first time. The first time this character is knocked Out of Action remove all damage tokens and continue playing normally. The next time they are knocked Out of Action, the character is removed from the board as usual.</t>
-  </si>
-  <si>
-    <t>After a Melee Attack Action, move up to 2" while in base contact</t>
-  </si>
-  <si>
-    <t>Melee Weapon Upgrades:</t>
-  </si>
-  <si>
-    <t>Deploy anywhere at least 12" away from enemy and out of LoS. Free Run action after Aptitude Test with Target # 3</t>
-  </si>
-  <si>
-    <t>Adjust range category by 4" up or down</t>
-  </si>
-  <si>
-    <t>Use Ranged Attack Action with 1 Yellow after a Run Action.</t>
-  </si>
-  <si>
-    <t>A character with this Trait must make a Recovery roll during the Resolution Phase if they have any damage tokens. This is the same Recovery roll normally done for being Shaken, not an additional one. If this Aptitude test is failed, the character is immediately knocked Out of Action.</t>
-  </si>
-  <si>
-    <t>Characters may not take the same Trait more than once</t>
-  </si>
-  <si>
-    <t>Carry 2 Weapons, swap as a free action.</t>
-  </si>
-  <si>
-    <t>Sound the Advance</t>
-  </si>
-  <si>
-    <t>When using a Run Action, all friendly characters within 8" may perform a Run Action</t>
-  </si>
-  <si>
-    <t>Activate immediately before or after a friendly character within 8" activates</t>
-  </si>
-  <si>
-    <t>Followers may take two Traits</t>
-  </si>
-  <si>
-    <t>Move full speed while Prone this Turn</t>
-  </si>
-  <si>
-    <t>A character with this Trait ignores the penalties of Shaken tokens. Shaken tokens still stack into Bloodied and can still be gotten rid of through normal means.</t>
-  </si>
-  <si>
-    <t>Stealth</t>
-  </si>
-  <si>
-    <t>Cannot be targeted while at Long range or while in Cover at Medium range. Maintain next turn for 3 Determination</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>2nd Weapon:</t>
-  </si>
-  <si>
-    <t>When knocked Out of Action, roll an Injury die. Cross = Bloodied</t>
-  </si>
-  <si>
-    <t>Immediately before receiving a Shaken token, a character may activate this Trait to roll an Injury Die. On a X result, the shaken token is discarded.</t>
-  </si>
-  <si>
-    <t>Heroes may take three Traits</t>
-  </si>
-  <si>
-    <t>When a character with this Trait is knocked Out of Action, roll an Injury Die. A cross result means the character remain on the battlfield with a Bloodied Token. Any other result means the character is knocked Out of Action as usual.</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Only Heroes may take Plot Armor</t>
-  </si>
-  <si>
-    <t>A character with this Trait may spend one Determination Token to count the “D” result on a die as a “Hit” or a “Pierce” during any roll. This may be used multiple times per roll, spending one Determination each time a D result is converted.</t>
-  </si>
-  <si>
-    <t>Weapon Upgrades can be either Blue or Green dice</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait when using a Recover action. Any Determination tokens generated by this Recover action may be given to a character within 8”. These tokens may only be used by that character. Each token may be spent by that character to count any “D” result on a future roll as either a “Hit” or a “Pierce”.</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait as an Action. When doing so choose a target in the same way as when making a Ranged Attack, then roll an Aptitude Test. Damage results are determined normally except that any D results may be counted as either Hits or Pierces. Use the following Ranged Target Numbers: S: 3 M: 3 L: 3</t>
-  </si>
-  <si>
-    <t>Characters must take at least one Weapon</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait as an Action. Choose a target within line of sight and move it X” where X is the number of Determination Tokens spent. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</t>
-  </si>
-  <si>
-    <t>Total Armor Upgrades may not exceed 3</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait as an Action. Choose a point within 12”. Any characters within 2” of this point count as targets for this attack. The character then rolls a seperate Aptitude Test for each target. Damage is determined using normal rules for attacks except that “D” results may be counted as either “Hits” or “Pierces”. The Range Target Number for this attack is always 4.</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait as an Action. Roll an Aptitude Test. Any “Hit” or “D” results may be used to remove damage tokens at the following cost: 3 Hit/D = Bloodied, 2 Hit/D = Shaken. This may be used on characters up to 3” away.</t>
-  </si>
-  <si>
-    <t>A character may activate this Trait as an Action to create a magical barrier that is 4” wide and 2” tall. This barrier blocks line of sight and may not be moved through or climbed over. The barrier lasts until the beginning of this character’s next activation. If the character spends an additional Determination at the beginning of its activation, the barrier remains, otherwise it disappears. If this character is knocked Out of Action, the barrier immediately disappears.</t>
-  </si>
-  <si>
-    <t>Copy and Paste the data from this calculator into the Form-Fillable PDF Character Card</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>*Use Semantic Versioning https://semver.org/</t>
-  </si>
-  <si>
-    <t>change "1".1.1 when adding new features that will have to be programed in</t>
-  </si>
-  <si>
-    <t>change 1."1".1 when adding or deleting row items</t>
-  </si>
-  <si>
-    <t>change 1.1."1" when modifying values</t>
-  </si>
-  <si>
-    <t>*All TabsDB have to have headers</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PointCost</t>
-  </si>
-  <si>
-    <t>TargetNumberMelee</t>
-  </si>
-  <si>
-    <t>TargetNumberShort</t>
-  </si>
-  <si>
-    <t>TargetNumberMedium</t>
-  </si>
-  <si>
-    <t>TargetNumberLong</t>
-  </si>
-  <si>
-    <t>Armor Type</t>
-  </si>
-  <si>
-    <t>Amount of Armor</t>
-  </si>
-  <si>
-    <t>Point Cost</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>weaponCategoryEnum</t>
-  </si>
-  <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>stringer</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
+  <x:si>
+    <x:t>Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ranged Weapons</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ranged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aptitude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trait 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trait 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trait 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Range Target Numbers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cost in D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Short 1-8”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medium 8-18”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long 18”+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Notes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pistol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rifle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Handed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May re-roll up to 2 Blank Results during a Ranged Attack action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When using an Overwatch Action, this character reacts to enemy activity in a full 360 degree arc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Rifle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nerves of Steel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May re-roll up to 2 Blank or D results during a Ranged Attack action, Two Handed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dual Wielding (Ranged)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sniper Rifle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Careful Aim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignore the penalty for firing shots on Overwatch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shotgun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>At Short Range, Pierce Results can’t be cancelled, Two Handed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pistol and Hand Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disciplined Overwatch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May be used without a Dual Wielding Trait, counts as a single Weapon choice, Two Handed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When using an Overwatch Action, this character may choose whether or not to remove their Overwatch token and fire when an enemy enters their field of view.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melee Weapons</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dual Wielding Ranged</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allows a character to equip 2 one-handed ranged weapons. A character may use this Trait to fire both weapons as a single Ranged Attack action at one target generating two Green Bonus dice. Alternatively, they may be fired at two separate targets in which case each shot is resolved as a separate Ranged Attack Action each generating one Yellow Penalty die.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hand Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entrench</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spend an entire activation (uses both your movement and your action) to set up a defensive position, gaining +1 Armor. You cannot move while entrenched. You use the Operate action to dismantle the defensive position before being able to move again. Being entrenched also counts as being in Cover.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hand Axe, Mace, Knife, etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Headshot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When a character with this Trait rolls at least two times more Hit results than their Range Target # during a Ranged Attack action, they may use this Trait to make Shaken results count as Bloodied and Bloodied Results count as Out of Action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May re-roll up to two Blank or Determination results during a Melee Attack action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Killshot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Great Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After causing an Out of Action result with a Ranged Attack, you may immediately make an additional Ranged Attack with one Yellow Penalty die.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pierce Results can’t be canceled, Two-Handed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polearm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May use a Ranged Attack action with a Target # of 2 when within 2” of target but not Engaged in Melee. Roll a Melee Test instead of Ranged Test for this Attack.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sharpshooter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Improvised Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may use this Trait when using a Ranged Attack Action. This allows them to adjust one range category up to 4” in either direction. (Short could extend up to 12” or medium could extend down to 4”, etc.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anything not meant to be a weapon that could still hurt someone - table leg, baseball bat, frying pan, etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shield</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gain 1 Red Penalty Die as with Armor Upgrades. If all dice are allocated as Penalty Dice during a Melee Attack Action, + 1 Yellow die</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoot from the Hip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After using a Run action, this character may also use a Ranged Attack Action generating 1 Yellow die.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1st Weapon:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Straps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may equip two weapons. Once during its activation, this character may swap their active weapon as a free action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloodsucker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After inflicting a Bloodied result on an enemy character during a Melee Attack action, a Character may use this Trait to remove one of their Damage Tokens.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Combat Maneuver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After successfully hitting an enemy character during a Melee Attack action, this Trait may be used to push the Defender up to 2” in addition to dealing damage as normal. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deathblow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After causing an Out of Action result during a Melee Attack action, you may immediately make an additional Melee Attack action against another enemy in base contact with the usual penalty for additional attacks.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Defensive Expert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may force their opponent to re-roll any one Regular or Bonus Die during a Melee Attack action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dual Wielding Melee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allows a character to equip two one-handed melee weapons. A character may use this Trait when using a Melee Attack Action to generate a Green die and a Blue die. Alternatively, they may choose to use two seperate Melee Attack actions generating 1 Yellow die each.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Furious Charge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When this character uses the Charge Action, they may activate this Trait to increase their Melee Stat by 1 for the duration of their Activation.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit and Run</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait when they use a Withdraw or Melee Attack action. When Withdrawing, they may immediately use their Run action without rolling an Opposed Test against their opponent. When using a Melee Attack action, they may use a Run action immediately after the combat is resolved.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quick Footed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After a Melee Attack action, this character may move up to 2” while maintaining base contact.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yellow Armor Upgrades:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Movement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Agile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait at the beginning of their activation. The character ignores all difficult terrain penalties for the rest of its activation.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bob and Weave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait when they are declared the Target of a Ranged Attack action. They immediately change their stance from Standing to Prone or move up to 2”. Use the characters new position for the Ranged Attack action. If they are no longer within Line of Sight, the Active character may choose a new target.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ranged Weapon Chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dynamic Entry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may choose not to deploy at the beginning of a Mission. Instead, the controlling player may activate this Trait to deploy this character instead of activating one of its models on the board. The character may be deployed anywhere on the battlefield at least 6” away from any enemy characters. After deploying, the character may either use an action or move.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Short</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fast</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may move an additional two inches any time they move.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Points</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Characters with this Trait ignore terrain and other characters while moving but may not end their movement on top of other characters or on top of anything the model cannot be set on.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hit the Deck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may change from Prone to Standing or vice versa once per turn at no cost to their movement.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jetpack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait to immediately move up to 8”. This movement ignores all terrain penalties and allows the character to move vertically and horizontally through open air as though they were moving across open ground. The Character must end their movement on surface the model can stand on.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Armor Upgrades:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause and Fire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignore Difficult Terrain for Activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may split its movement before and after its Action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 360" Overwatch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Behemoth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignore Damage effects until after first Out of Action result, then remove all Damage tokens and act normally</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blood Sucker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may be deployed anywhere on the battlefield more than 12” from an enemy character as long as they are out of Line of Sight. The character may also make an Aptitude Test with a Target # of 3 when deploying. On a success, the character may move up to 4” after all other models have been deployed but before the first turn begins.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remove a Damager Token after causing a Bloodied Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When targeted by a Ranged Attack Action, go Prone or move up to 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stay Low</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait at the beginning of their activation. They may then move at full speed while prone for the rest of their activation.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overwatch does not generate Penalty Dice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After Hitting a Melee target, move them up to 2" away</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use a Melee Attack Action with 1 Yellow after causing an Out of Action Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melee Weapon Chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Force Melee Opponent to re-roll a die</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sealth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait anytime during their Activation. Until the start of this character’s next turn, it is no longer able to be targeted by an enemy character while at long range or while in cover at medium range. Entering short range, making a shooting action, or making an attack action ends this ability immediately. At the start of its next activation, this character may pay 3 Determination to remain in Stealth.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot Armor:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Choose to activate Overwatch or remain on Overwatch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dual Wielding (Melee)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Equip 2 Melee Weapons, Generate 1 Green and 1 Blue Die for 1 Target or 1 Yellow each for 2 Targets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Equip 2 Ranged Weapons, Generate 2 Green Dice for 1 Target or 1 Yellow each for 2 Targets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deploy at least 6" away from enemy characters then move or use an action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spend Activation to gain +1 Armor and Cover. No movement until using an Operate action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move +2" anytime you move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignore Terrain while moving, must end on clear ground</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leadership</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Increase Melee Stat by 1 during a Charge Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait when they use a Recover Action. In addition to the normal Recover Action, automatically remove a Shaken token from a friendly character within 8”.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Increase Damage result when rolling twice as many hits as Target #.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Withdraw without rolling Opposed Melee. May Withdraw immediately after a Charge or Melee Attack action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Points Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot Armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Change stance once per Turn for free</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mark Target</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait anytime during their Activation. Place a Token on an enemy in within line of sight. All Ranged Attack actions targeting that character generate one Green Die. This token may be removed by the targeted character by rolling a successful Aptitude Test with a target number of 3 after the character uses a Run action, changes their stance to Prone, or leaves the Line of Sight of the character that placed it there.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insignificant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If Shaken or Bloodied, perform Recovery roll during Resolution Phase. If failed, character is knocked Out of Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move 8", ignoring Terrain, must end on clear ground</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Just a Flesh Wound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>General Restrictions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ignore the effects of Shaken tokens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait anytime they use a Recover Action. In addition to the normal Recover action, they may downgrade the damage status of any friendly character in base contact. Bloodied tokens are replaced with Shaken tokens, Shaken tokens are removed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use a Ranged Attack Action with 1 Yellow after causing an Out of Action Result</x:t>
+  </x:si>
+  <x:si>
+    <x:t>During a Recovery Action, remove a Shaken token from a Friendly character within 8"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Adept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Special</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May spend 1 Determination to count a D result as a Hit or Pierce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Upgrades</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moral Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait gains two determination tokens for each D result when using the Recover action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Aid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>During a Recovery Action, D results can give other characters Determination tokens to spend as Hit or Pierce results</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Bolt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As an Action, make a Ranged Attack using Aptitude, D results may count as Hit or Pierce. T# 3 at any range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound the
+ Advance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Compel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait when using the Run action. All friendly characters within 8” may immediately move up to 4”.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As an Action, spend X Determination tokens to move an enemy character within LoS up to X"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Characters may only take one weapon unless a Trait allows them to take two</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Explosion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As an action, choose a point within 12", Target all characters within 2" for Ranged Attack using Aptitude with T# 4, D results can count as Hit or Pierce results</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Healing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As an action, roll an Aptitude test. Use Hit and D results to heal characters within 3". 3 = Bloodied, 2 = Shaken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ranged Weapon Upgrades:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magical Shield</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Squad Tactics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As an action, create a magical barrier 4" wide and 2" tall. Blocks LoS and Movment. Barrier disappears at start of next activation or when knocked OOA. May be maintained for 1 Determination each activation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait immediately after another friendly character within 8” finishes its activation. This character may then carry out its Activation for the turn. This cannot be used to activate a character twice in a single Turn.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yellow Armor Upgrades</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Place a token on a character within LoS, all Ranged Attacks against that Target, generate 1 Green. Can be removed by an Aptitude Test with T# 3 after Run, leaving LoS, or going Prone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>During a Recovery Action, downgrade Damage on a character in Base Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gain two Determination tokens for each D result during a Recovery action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roll and Injury die before receiving a Shaken token. On a "+" result ignore the Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If a Character takes two weapons and one is Ranged, make sure the first one is the Ranged Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Split movement before and after an Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Armor Upgrades</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This character ignores the negative modifiers for Bloodied or Shaken results until they are knocked Out of Action the first time. The first time this character is knocked Out of Action remove all damage tokens and continue playing normally. The next time they are knocked Out of Action, the character is removed from the board as usual.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>After a Melee Attack Action, move up to 2" while in base contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melee Weapon Upgrades:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deploy anywhere at least 12" away from enemy and out of LoS. Free Run action after Aptitude Test with Target # 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adjust range category by 4" up or down</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Ranged Attack Action with 1 Yellow after a Run Action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait must make a Recovery roll during the Resolution Phase if they have any damage tokens. This is the same Recovery roll normally done for being Shaken, not an additional one. If this Aptitude test is failed, the character is immediately knocked Out of Action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Characters may not take the same Trait more than once</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carry 2 Weapons, swap as a free action.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound the Advance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When using a Run Action, all friendly characters within 8" may perform a Run Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activate immediately before or after a friendly character within 8" activates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Followers may take two Traits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move full speed while Prone this Turn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait ignores the penalties of Shaken tokens. Shaken tokens still stack into Bloodied and can still be gotten rid of through normal means.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stealth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannot be targeted while at Long range or while in Cover at Medium range. Maintain next turn for 3 Determination</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Undead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2nd Weapon:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When knocked Out of Action, roll an Injury die. Cross = Bloodied</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Immediately before receiving a Shaken token, a character may activate this Trait to roll an Injury Die. On a X result, the shaken token is discarded.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heroes may take three Traits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>When a character with this Trait is knocked Out of Action, roll an Injury Die. A cross result means the character remain on the battlfield with a Bloodied Token. Any other result means the character is knocked Out of Action as usual.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Only Heroes may take Plot Armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character with this Trait may spend one Determination Token to count the “D” result on a die as a “Hit” or a “Pierce” during any roll. This may be used multiple times per roll, spending one Determination each time a D result is converted.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Upgrades can be either Blue or Green dice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait when using a Recover action. Any Determination tokens generated by this Recover action may be given to a character within 8”. These tokens may only be used by that character. Each token may be spent by that character to count any “D” result on a future roll as either a “Hit” or a “Pierce”.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait as an Action. When doing so choose a target in the same way as when making a Ranged Attack, then roll an Aptitude Test. Damage results are determined normally except that any D results may be counted as either Hits or Pierces. Use the following Ranged Target Numbers: S: 3 M: 3 L: 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Characters must take at least one Weapon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait as an Action. Choose a target within line of sight and move it X” where X is the number of Determination Tokens spent. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Armor Upgrades may not exceed 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait as an Action. Choose a point within 12”. Any characters within 2” of this point count as targets for this attack. The character then rolls a seperate Aptitude Test for each target. Damage is determined using normal rules for attacks except that “D” results may be counted as either “Hits” or “Pierces”. The Range Target Number for this attack is always 4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait as an Action. Roll an Aptitude Test. Any “Hit” or “D” results may be used to remove damage tokens at the following cost: 3 Hit/D = Bloodied, 2 Hit/D = Shaken. This may be used on characters up to 3” away.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A character may activate this Trait as an Action to create a magical barrier that is 4” wide and 2” tall. This barrier blocks line of sight and may not be moved through or climbed over. The barrier lasts until the beginning of this character’s next activation. If the character spends an additional Determination at the beginning of its activation, the barrier remains, otherwise it disappears. If this character is knocked Out of Action, the barrier immediately disappears.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copy and Paste the data from this calculator into the Form-Fillable PDF Character Card</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*Use Semantic Versioning https://semver.org/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>change "1".1.1 when adding new features that will have to be programed in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>change 1."1".1 when adding or deleting row items</x:t>
+  </x:si>
+  <x:si>
+    <x:t>change 1.1."1" when modifying values</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*All TabsDB have to have headers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PointCost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TargetNumberMelee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TargetNumberShort</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TargetNumberMedium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TargetNumberLong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Armor Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount of Armor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Point Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yellow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decimal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weaponCategoryEnum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stringer</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11089,1845 +11089,1845 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="171.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="59">
-        <v>3</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="61">
-        <v>0</v>
-      </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61"/>
-      <c r="L3" s="57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="59">
-        <v>4</v>
-      </c>
-      <c r="B4" s="61">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="61">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="61">
-        <v>0</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="61">
-        <v>2</v>
-      </c>
-      <c r="I4" s="63">
-        <v>1</v>
-      </c>
-      <c r="J4" s="61">
-        <v>0</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="59">
-        <v>5</v>
-      </c>
-      <c r="B5" s="61">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="61">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="61">
-        <v>4</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="61">
-        <v>2</v>
-      </c>
-      <c r="I5" s="63">
-        <v>2</v>
-      </c>
-      <c r="J5" s="61">
-        <v>3</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="59">
-        <v>6</v>
-      </c>
-      <c r="B6" s="61">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="61">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="61">
-        <v>7</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="61">
-        <v>8</v>
-      </c>
-      <c r="I6" s="63">
-        <v>3</v>
-      </c>
-      <c r="J6" s="61">
-        <v>6</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="59">
-        <v>7</v>
-      </c>
-      <c r="B7" s="61">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="61">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="61">
-        <v>9</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="61">
-        <v>3</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="L7" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="59">
-        <v>8</v>
-      </c>
-      <c r="B8" s="61">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="61">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="61">
-        <v>11</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="61">
-        <v>2</v>
-      </c>
-      <c r="I8" s="66"/>
-      <c r="L8" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="59">
-        <v>9</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="61">
-        <v>2</v>
-      </c>
-      <c r="I9" s="66"/>
-      <c r="L9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="59">
-        <v>10</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="61">
-        <v>2</v>
-      </c>
-      <c r="I10" s="66"/>
-      <c r="L10" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="G11" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="61">
-        <v>2</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B12" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="61">
-        <v>2</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="61">
-        <v>2</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
-      <c r="A14" s="59">
-        <v>3</v>
-      </c>
-      <c r="B14" s="61">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="61">
-        <v>2</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="61"/>
-      <c r="L14" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
-      <c r="A15" s="59">
-        <v>4</v>
-      </c>
-      <c r="B15" s="61">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="61">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="61">
-        <v>0</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="61">
-        <v>2</v>
-      </c>
-      <c r="I15" s="63">
-        <v>1</v>
-      </c>
-      <c r="J15" s="61">
-        <v>0</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
-      <c r="A16" s="59">
-        <v>5</v>
-      </c>
-      <c r="B16" s="61">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="61">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="61">
-        <v>4</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="61">
-        <v>2</v>
-      </c>
-      <c r="I16" s="63">
-        <v>2</v>
-      </c>
-      <c r="J16" s="61">
-        <v>3</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="59">
-        <v>6</v>
-      </c>
-      <c r="B17" s="61">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6</v>
-      </c>
-      <c r="D17" s="61">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-      <c r="F17" s="61">
-        <v>7</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="61">
-        <v>2</v>
-      </c>
-      <c r="I17" s="63">
-        <v>3</v>
-      </c>
-      <c r="J17" s="61">
-        <v>6</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="59">
-        <v>7</v>
-      </c>
-      <c r="B18" s="61">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="D18" s="61">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7</v>
-      </c>
-      <c r="F18" s="61">
-        <v>9</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="61">
-        <v>2</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="59">
-        <v>8</v>
-      </c>
-      <c r="B19" s="61">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="D19" s="61">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="61">
-        <v>11</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="61">
-        <v>5</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
-      <c r="A20" s="59">
-        <v>9</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1">
-        <v>9</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="61">
-        <v>2</v>
-      </c>
-      <c r="L20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" s="64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="59">
-        <v>10</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="61">
-        <v>5</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="G22" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="61">
-        <v>2</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="61">
-        <v>2</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="70">
-        <v>0</v>
-      </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="70">
-        <v>0</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="61">
-        <v>-5</v>
-      </c>
-      <c r="L24" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
-      <c r="A25" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="70">
-        <v>3</v>
-      </c>
-      <c r="D25" s="61">
-        <v>1</v>
-      </c>
-      <c r="E25" s="70">
-        <v>5</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="61">
-        <v>2</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
-      <c r="A26" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="70">
-        <v>2</v>
-      </c>
-      <c r="D26" s="61">
-        <v>2</v>
-      </c>
-      <c r="E26" s="70">
-        <v>10</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="61">
-        <v>3</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
-      <c r="A27" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="70">
-        <v>1</v>
-      </c>
-      <c r="D27" s="61">
-        <v>3</v>
-      </c>
-      <c r="E27" s="70">
-        <v>15</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="61">
-        <v>3</v>
-      </c>
-      <c r="L27" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
-      <c r="A28" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="70">
-        <v>-1</v>
-      </c>
-      <c r="D28" s="61">
-        <v>4</v>
-      </c>
-      <c r="E28" s="70">
-        <v>20</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="61">
-        <v>2</v>
-      </c>
-      <c r="L28" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
-      <c r="A29" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="70">
-        <v>0</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="61">
-        <v>2</v>
-      </c>
-      <c r="L29" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
-      <c r="A30" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="70">
-        <v>1</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="61">
-        <v>2</v>
-      </c>
-      <c r="L30" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
-      <c r="A31" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="70">
-        <v>2</v>
-      </c>
-      <c r="D31" s="71">
-        <v>0</v>
-      </c>
-      <c r="E31" s="70">
-        <v>0</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="61">
-        <v>2</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
-      <c r="A32" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="70">
-        <v>1</v>
-      </c>
-      <c r="D32" s="71">
-        <v>1</v>
-      </c>
-      <c r="E32" s="70">
-        <v>1</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="61">
-        <v>2</v>
-      </c>
-      <c r="L32" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="M32" s="64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
-      <c r="A33" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="70">
-        <v>2</v>
-      </c>
-      <c r="D33" s="71">
-        <v>2</v>
-      </c>
-      <c r="E33" s="70">
-        <v>3</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="61">
-        <v>2</v>
-      </c>
-      <c r="L33" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="M33" s="64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
-      <c r="A34" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="70">
-        <v>3</v>
-      </c>
-      <c r="D34" s="71">
-        <v>3</v>
-      </c>
-      <c r="E34" s="70">
-        <v>5</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="61">
-        <v>2</v>
-      </c>
-      <c r="L34" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="M34" s="64" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
-      <c r="A35" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="70">
-        <v>2</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="61">
-        <v>2</v>
-      </c>
-      <c r="L35" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="M35" s="64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
-      <c r="A36" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="70">
-        <v>3</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="61">
-        <v>2</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="M36" s="64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
-      <c r="A37" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="70">
-        <v>2</v>
-      </c>
-      <c r="D37" s="71">
-        <v>0</v>
-      </c>
-      <c r="E37" s="70">
-        <v>0</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="61">
-        <v>2</v>
-      </c>
-      <c r="L37" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="M37" s="64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="63">
-        <v>1</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="61">
-        <v>2</v>
-      </c>
-      <c r="L38" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="M38" s="64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="63">
-        <v>3</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="61">
-        <v>2</v>
-      </c>
-      <c r="L39" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="63">
-        <v>5</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" s="61">
-        <v>2</v>
-      </c>
-      <c r="L40" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="M40" s="64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
-      <c r="D41" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="61">
-        <v>2</v>
-      </c>
-      <c r="L41" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="M41" s="64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
-      <c r="D42" s="71">
-        <v>0</v>
-      </c>
-      <c r="E42" s="70">
-        <v>0</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="61">
-        <v>2</v>
-      </c>
-      <c r="L42" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="M42" s="64" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="63">
-        <v>2</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="61">
-        <v>2</v>
-      </c>
-      <c r="L43" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="63">
-        <v>4</v>
-      </c>
-      <c r="G44" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" s="61">
-        <v>2</v>
-      </c>
-      <c r="L44" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="M44" s="64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
-      <c r="D45" s="1">
-        <v>3</v>
-      </c>
-      <c r="E45" s="63">
-        <v>6</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="61">
-        <v>2</v>
-      </c>
-      <c r="L45" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="M45" s="64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="H46" s="61">
-        <v>2</v>
-      </c>
-      <c r="L46" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="M46" s="64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
-      <c r="C47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="61">
-        <v>2</v>
-      </c>
-      <c r="L47" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="M47" s="64" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
-      <c r="C48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="61">
-        <v>2</v>
-      </c>
-      <c r="L48" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="M48" s="64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="12.75">
-      <c r="C49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="61">
-        <v>2</v>
-      </c>
-      <c r="L49" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="M49" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" ht="12.75">
-      <c r="C50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="H50" s="61">
-        <v>6</v>
-      </c>
-      <c r="L50" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="M50" s="67" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" ht="12.75">
-      <c r="C51" s="61"/>
-      <c r="F51" s="61"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.75">
-      <c r="C52" s="61"/>
-      <c r="F52" s="61"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.75">
-      <c r="C53" s="61"/>
-      <c r="F53" s="61"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.75">
-      <c r="C54" s="61"/>
-      <c r="F54" s="61"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.75">
-      <c r="A55" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="81" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" ht="12.75">
-      <c r="A56" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="86">
-        <v>3</v>
-      </c>
-      <c r="C56" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="88">
-        <v>2</v>
-      </c>
-      <c r="E56" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="86">
-        <v>4</v>
-      </c>
-      <c r="G56" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="88">
-        <v>5</v>
-      </c>
-      <c r="I56" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="90"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75">
-      <c r="A57" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="86">
-        <v>3</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="88">
-        <v>2</v>
-      </c>
-      <c r="E57" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="86">
-        <v>3</v>
-      </c>
-      <c r="G57" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="88">
-        <v>4</v>
-      </c>
-      <c r="I57" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="12.75">
-      <c r="A58" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="86">
-        <v>3</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="88">
-        <v>2</v>
-      </c>
-      <c r="E58" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="86">
-        <v>3</v>
-      </c>
-      <c r="G58" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="88">
-        <v>5</v>
-      </c>
-      <c r="I58" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="12.75">
-      <c r="A59" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="86">
-        <v>3</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="88">
-        <v>2</v>
-      </c>
-      <c r="E59" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="86">
-        <v>3</v>
-      </c>
-      <c r="G59" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="88">
-        <v>4</v>
-      </c>
-      <c r="I59" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" ht="12.75">
-      <c r="A60" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="86">
-        <v>3</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="88">
-        <v>4</v>
-      </c>
-      <c r="E60" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="86">
-        <v>3</v>
-      </c>
-      <c r="G60" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" s="88">
-        <v>2</v>
-      </c>
-      <c r="I60" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60" s="89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="12.75">
-      <c r="A61" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="86">
-        <v>3</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="88">
-        <v>1</v>
-      </c>
-      <c r="E61" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" s="86">
-        <v>4</v>
-      </c>
-      <c r="G61" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="88">
-        <v>5</v>
-      </c>
-      <c r="I61" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" ht="12.75">
-      <c r="A62" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="86">
-        <v>2</v>
-      </c>
-      <c r="C62" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="88">
-        <v>3</v>
-      </c>
-      <c r="E62" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="86">
-        <v>4</v>
-      </c>
-      <c r="G62" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="88">
-        <v>5</v>
-      </c>
-      <c r="I62" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="12.75">
-      <c r="A63" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="86">
-        <v>1</v>
-      </c>
-      <c r="C63" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="J63" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75">
-      <c r="A64" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="86">
-        <v>1</v>
-      </c>
-      <c r="C64" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="J64" s="89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="86">
-        <v>2</v>
-      </c>
-      <c r="C65" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="H65" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65" s="89" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="12.75">
-      <c r="A66" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="86">
-        <v>2</v>
-      </c>
-      <c r="C66" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="J66" s="89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="12.75">
-      <c r="A67" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="86">
-        <v>2</v>
-      </c>
-      <c r="C67" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="F67" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="H68" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I68" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="J68" s="89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" s="85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A24:B46"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="0" summaryRight="0"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:Z69"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <x:cols>
+    <x:col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <x:col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <x:col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <x:col min="12" max="12" width="22" customWidth="1"/>
+    <x:col min="13" max="13" width="171.28515625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="54" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
+      <x:c r="I1" s="1"/>
+      <x:c r="J1" s="1"/>
+    </x:row>
+    <x:row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A2" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B2" s="56" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C2" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D2" s="55" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F2" s="55" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G2" s="55" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H2" s="55" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I2" s="56" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J2" s="55" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="L2" s="55" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M2" s="57" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A3" s="59">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C3" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D3" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E3" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="57" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H3" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="63"/>
+      <x:c r="J3" s="61"/>
+      <x:c r="L3" s="57" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A4" s="59">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F4" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G4" s="54" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H4" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I4" s="63">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="54" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M4" s="64" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A5" s="59">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D5" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F5" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G5" s="54" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I5" s="63">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J5" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L5" s="54" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M5" s="64" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A6" s="59">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E6" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F6" s="61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="54" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H6" s="61">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I6" s="63">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J6" s="61">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L6" s="54" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="M6" s="64" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A7" s="59">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E7" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F7" s="61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G7" s="54" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H7" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I7" s="66"/>
+      <x:c r="L7" s="54" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M7" s="64" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A8" s="59">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="61">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="61">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="54" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H8" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I8" s="66"/>
+      <x:c r="L8" s="54" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="M8" s="67" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A9" s="59">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="1">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E9" s="1">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G9" s="54" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H9" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I9" s="66"/>
+      <x:c r="L9" s="54" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M9" s="64" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A10" s="59">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E10" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G10" s="57" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H10" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I10" s="66"/>
+      <x:c r="L10" s="57" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="M10" s="64" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="G11" s="54" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H11" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L11" s="54" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="M11" s="64" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="B12" s="57" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="G12" s="54" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H12" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L12" s="54" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="M12" s="64" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <x:c r="A13" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B13" s="56" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C13" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D13" s="55" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E13" s="55" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F13" s="55" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G13" s="54" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H13" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I13" s="56" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J13" s="55" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="L13" s="54" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M13" s="64" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13" ht="12.75">
+      <x:c r="A14" s="59">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C14" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F14" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G14" s="54" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H14" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I14" s="63"/>
+      <x:c r="J14" s="61"/>
+      <x:c r="L14" s="54" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="M14" s="64" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13" ht="12.75">
+      <x:c r="A15" s="59">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B15" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C15" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D15" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E15" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F15" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G15" s="54" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H15" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I15" s="63">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J15" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L15" s="54" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M15" s="64" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13" ht="12.75">
+      <x:c r="A16" s="59">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B16" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C16" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E16" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F16" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G16" s="54" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H16" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I16" s="63">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J16" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L16" s="54" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="M16" s="64" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13" ht="12.75">
+      <x:c r="A17" s="59">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B17" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C17" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D17" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E17" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F17" s="61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G17" s="54" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H17" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I17" s="63">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J17" s="61">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L17" s="54" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M17" s="64" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13" ht="12.75">
+      <x:c r="A18" s="59">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B18" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E18" s="1">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F18" s="61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G18" s="54" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H18" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L18" s="54" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="M18" s="64" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:13" ht="12.75">
+      <x:c r="A19" s="59">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B19" s="61">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C19" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D19" s="61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E19" s="1">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F19" s="61">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G19" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H19" s="61">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L19" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="M19" s="64" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13" ht="12.75">
+      <x:c r="A20" s="59">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B20" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C20" s="1">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E20" s="1">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F20" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G20" s="54" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H20" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L20" s="54" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M20" s="64" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13" ht="12.75">
+      <x:c r="A21" s="59">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B21" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C21" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E21" s="1">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F21" s="61" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G21" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H21" s="61">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L21" s="57" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M21" s="64" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:13" ht="12.75">
+      <x:c r="G22" s="54" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H22" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L22" s="54" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M22" s="64" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:13" ht="12.75">
+      <x:c r="A23" s="55" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B23" s="55" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D23" s="55" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E23" s="56" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G23" s="54" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H23" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L23" s="54" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="M23" s="64" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:13" ht="12.75">
+      <x:c r="A24" s="61" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B24" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D24" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E24" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G24" s="54" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="H24" s="61">
+        <x:v>-5</x:v>
+      </x:c>
+      <x:c r="L24" s="54" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="M24" s="64" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:13" ht="12.75">
+      <x:c r="A25" s="71" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B25" s="70">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D25" s="61">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E25" s="70">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G25" s="54" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H25" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L25" s="54" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="M25" s="64" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:13" ht="12.75">
+      <x:c r="A26" s="71" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B26" s="70">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D26" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E26" s="70">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G26" s="54" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H26" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L26" s="54" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="M26" s="64" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:13" ht="12.75">
+      <x:c r="A27" s="71" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B27" s="70">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D27" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E27" s="70">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G27" s="57" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H27" s="61">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L27" s="57" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M27" s="64" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:13" ht="12.75">
+      <x:c r="A28" s="61" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B28" s="70">
+        <x:v>-1</x:v>
+      </x:c>
+      <x:c r="D28" s="61">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E28" s="70">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G28" s="54" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="H28" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L28" s="54" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="M28" s="64" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:13" ht="12.75">
+      <x:c r="A29" s="71" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B29" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G29" s="54" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="H29" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L29" s="54" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="M29" s="64" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:13" ht="12.75">
+      <x:c r="A30" s="71" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B30" s="70">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D30" s="73" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E30" s="56" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G30" s="54" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="H30" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L30" s="54" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="M30" s="64" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:13" ht="12.75">
+      <x:c r="A31" s="71" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B31" s="70">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D31" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E31" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31" s="54" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="H31" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L31" s="54" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M31" s="64" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:13" ht="12.75">
+      <x:c r="A32" s="71" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B32" s="70">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D32" s="71">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="70">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G32" s="54" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="H32" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L32" s="54" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="M32" s="64" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:13" ht="12.75">
+      <x:c r="A33" s="71" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B33" s="70">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D33" s="71">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E33" s="70">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G33" s="54" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="H33" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L33" s="54" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="M33" s="64" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:13" ht="12.75">
+      <x:c r="A34" s="71" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B34" s="70">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D34" s="71">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E34" s="70">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G34" s="54" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="H34" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L34" s="54" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M34" s="64" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:13" ht="12.75">
+      <x:c r="A35" s="71" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B35" s="70">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G35" s="54" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H35" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L35" s="54" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="M35" s="64" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:13" ht="12.75">
+      <x:c r="A36" s="71" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B36" s="70">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D36" s="55" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E36" s="56" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G36" s="54" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="H36" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L36" s="54" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="M36" s="64" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:13" ht="12.75">
+      <x:c r="A37" s="71" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B37" s="70">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D37" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E37" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G37" s="54" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="H37" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L37" s="54" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="M37" s="64" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:13" ht="12.75">
+      <x:c r="D38" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E38" s="63">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G38" s="54" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="H38" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L38" s="54" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="M38" s="64" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:13" ht="12.75">
+      <x:c r="D39" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E39" s="63">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G39" s="54" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H39" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L39" s="54" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M39" s="64" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:13" ht="12.75">
+      <x:c r="D40" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E40" s="63">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G40" s="54" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="H40" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L40" s="54" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="M40" s="64" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:13" ht="12.75">
+      <x:c r="D41" s="55" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E41" s="56" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G41" s="54" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H41" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L41" s="54" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="M41" s="64" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:13" ht="12.75">
+      <x:c r="D42" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E42" s="70">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G42" s="54" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="H42" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L42" s="54" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="M42" s="64" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:13" ht="12.75">
+      <x:c r="D43" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E43" s="63">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G43" s="54" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H43" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L43" s="54" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M43" s="64" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:13" ht="12.75">
+      <x:c r="D44" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E44" s="63">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G44" s="54" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H44" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L44" s="54" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M44" s="64" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:13" ht="12.75">
+      <x:c r="D45" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E45" s="63">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G45" s="54" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H45" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L45" s="54" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="M45" s="64" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:13" ht="12.75">
+      <x:c r="C46" s="1"/>
+      <x:c r="D46" s="1"/>
+      <x:c r="E46" s="1"/>
+      <x:c r="F46" s="1"/>
+      <x:c r="G46" s="54" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="H46" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L46" s="54" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="M46" s="64" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:13" ht="12.75">
+      <x:c r="C47" s="61"/>
+      <x:c r="F47" s="61"/>
+      <x:c r="G47" s="54" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="H47" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L47" s="54" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="M47" s="64" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:13" ht="12.75">
+      <x:c r="C48" s="61"/>
+      <x:c r="F48" s="61"/>
+      <x:c r="G48" s="54" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="H48" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L48" s="54" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="M48" s="64" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:26" ht="12.75">
+      <x:c r="C49" s="61"/>
+      <x:c r="F49" s="61"/>
+      <x:c r="G49" s="54" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="H49" s="61">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L49" s="54" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="M49" s="64" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:26" ht="12.75">
+      <x:c r="C50" s="61"/>
+      <x:c r="F50" s="61"/>
+      <x:c r="G50" s="54" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="H50" s="61">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L50" s="54" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="M50" s="67" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:26" ht="12.75">
+      <x:c r="C51" s="61"/>
+      <x:c r="F51" s="61"/>
+    </x:row>
+    <x:row r="52" spans="1:26" ht="12.75">
+      <x:c r="C52" s="61"/>
+      <x:c r="F52" s="61"/>
+    </x:row>
+    <x:row r="53" spans="1:26" ht="12.75">
+      <x:c r="C53" s="61"/>
+      <x:c r="F53" s="61"/>
+    </x:row>
+    <x:row r="54" spans="1:26" ht="12.75">
+      <x:c r="C54" s="61"/>
+      <x:c r="F54" s="61"/>
+    </x:row>
+    <x:row r="55" spans="1:26" ht="12.75">
+      <x:c r="A55" s="81" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B55" s="81" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C55" s="57" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D55" s="57" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E55" s="81" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F55" s="81" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G55" s="57" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H55" s="57" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="I55" s="83" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J55" s="83" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:26" ht="12.75">
+      <x:c r="A56" s="85" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B56" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C56" s="87" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D56" s="88">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E56" s="85" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F56" s="86">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G56" s="87" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H56" s="88">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I56" s="89" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J56" s="90"/>
+    </x:row>
+    <x:row r="57" spans="1:26" ht="12.75">
+      <x:c r="A57" s="85" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B57" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C57" s="87" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D57" s="88">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E57" s="85" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F57" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G57" s="87" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H57" s="88">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I57" s="89" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J57" s="89" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:26" ht="12.75">
+      <x:c r="A58" s="85" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C58" s="87" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D58" s="88">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E58" s="85" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F58" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G58" s="87" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H58" s="88">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I58" s="89" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J58" s="89" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:26" ht="12.75">
+      <x:c r="A59" s="85" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B59" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C59" s="87" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D59" s="88">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E59" s="85" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F59" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G59" s="87" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H59" s="88">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I59" s="89" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J59" s="89" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:26" ht="12.75">
+      <x:c r="A60" s="85" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B60" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C60" s="87" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D60" s="88">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E60" s="85" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F60" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G60" s="87" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H60" s="88">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I60" s="89" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J60" s="89" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:26" ht="12.75">
+      <x:c r="A61" s="85" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B61" s="86">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C61" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D61" s="88">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E61" s="85" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F61" s="86">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G61" s="87" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H61" s="88">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I61" s="89" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J61" s="89" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:26" ht="12.75">
+      <x:c r="A62" s="85" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B62" s="86">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C62" s="87" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D62" s="88">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E62" s="85" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F62" s="86">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G62" s="87" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H62" s="88">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I62" s="89" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J62" s="89" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:26" ht="12.75">
+      <x:c r="A63" s="85" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B63" s="86">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C63" s="87" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D63" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E63" s="85" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F63" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G63" s="87" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H63" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I63" s="89" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J63" s="89" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="K63" s="14"/>
+      <x:c r="L63" s="14"/>
+      <x:c r="M63" s="14"/>
+      <x:c r="N63" s="14"/>
+      <x:c r="O63" s="14"/>
+      <x:c r="P63" s="14"/>
+      <x:c r="Q63" s="14"/>
+      <x:c r="R63" s="14"/>
+      <x:c r="S63" s="14"/>
+      <x:c r="T63" s="14"/>
+      <x:c r="U63" s="14"/>
+      <x:c r="V63" s="14"/>
+      <x:c r="W63" s="14"/>
+      <x:c r="X63" s="14"/>
+      <x:c r="Y63" s="14"/>
+      <x:c r="Z63" s="14"/>
+    </x:row>
+    <x:row r="64" spans="1:26" ht="12.75">
+      <x:c r="A64" s="85" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B64" s="86">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C64" s="87" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D64" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E64" s="85" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F64" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G64" s="87" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H64" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I64" s="89" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J64" s="89" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:10" ht="12.75">
+      <x:c r="A65" s="85" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B65" s="86">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C65" s="87" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D65" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E65" s="85" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F65" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G65" s="87" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H65" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I65" s="89" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J65" s="89" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:10" ht="12.75">
+      <x:c r="A66" s="85" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B66" s="86">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C66" s="87" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D66" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E66" s="85" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F66" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G66" s="87" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H66" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I66" s="89" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J66" s="89" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:10" ht="12.75">
+      <x:c r="A67" s="85" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B67" s="86">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C67" s="87" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D67" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E67" s="85" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F67" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G67" s="87" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H67" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I67" s="89" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J67" s="89" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:10" ht="12.75">
+      <x:c r="A68" s="85" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B68" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C68" s="87" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D68" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E68" s="85" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F68" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G68" s="87" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H68" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I68" s="89" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J68" s="89" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:10" ht="12.75">
+      <x:c r="A69" s="85" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B69" s="86" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C69" s="87" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D69" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E69" s="85" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F69" s="85" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G69" s="87" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H69" s="88" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I69" s="85" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J69" s="85" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A24:B46"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ExcelFileFolder/VanguardDB.xlsx
+++ b/ExcelFileFolder/VanguardDB.xlsx
@@ -1,808 +1,808 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamt\source\repos\Vanguard\ExcelFileFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\Vanguard\ExcelFileFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="7"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Calculator (Beta)" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Armory" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Traits" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Tables" sheetId="4" r:id="rId4"/>
-    <x:sheet name="VersionDB" sheetId="5" r:id="rId5"/>
-    <x:sheet name="WeaponsDB" sheetId="6" r:id="rId6"/>
-    <x:sheet name="ArmorDB" sheetId="7" r:id="rId7"/>
-    <x:sheet name="TestsDB" sheetId="8" r:id="rId8"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tables!$A$24:$B$46</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="152511"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="6"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Calculator (Beta)" sheetId="1" r:id="rId1"/>
+    <sheet name="Armory" sheetId="2" r:id="rId2"/>
+    <sheet name="Traits" sheetId="3" r:id="rId3"/>
+    <sheet name="Tables" sheetId="4" r:id="rId4"/>
+    <sheet name="VersionDB" sheetId="5" r:id="rId5"/>
+    <sheet name="WeaponsDB" sheetId="6" r:id="rId6"/>
+    <sheet name="ArmorDB" sheetId="7" r:id="rId7"/>
+    <sheet name="TestsDB" sheetId="8" r:id="rId8"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tables!$A$24:$B$46</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ranged Weapons</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ranged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aptitude</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trait 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trait 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trait 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Range Target Numbers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cost in D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Short 1-8”</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medium 8-18”</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long 18”+</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Notes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pistol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rifle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Handed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May re-roll up to 2 Blank Results during a Ranged Attack action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When using an Overwatch Action, this character reacts to enemy activity in a full 360 degree arc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Rifle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nerves of Steel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May re-roll up to 2 Blank or D results during a Ranged Attack action, Two Handed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dual Wielding (Ranged)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sniper Rifle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Careful Aim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignore the penalty for firing shots on Overwatch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shotgun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>At Short Range, Pierce Results can’t be cancelled, Two Handed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pistol and Hand Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disciplined Overwatch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May be used without a Dual Wielding Trait, counts as a single Weapon choice, Two Handed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When using an Overwatch Action, this character may choose whether or not to remove their Overwatch token and fire when an enemy enters their field of view.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melee Weapons</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dual Wielding Ranged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allows a character to equip 2 one-handed ranged weapons. A character may use this Trait to fire both weapons as a single Ranged Attack action at one target generating two Green Bonus dice. Alternatively, they may be fired at two separate targets in which case each shot is resolved as a separate Ranged Attack Action each generating one Yellow Penalty die.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hand Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entrench</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spend an entire activation (uses both your movement and your action) to set up a defensive position, gaining +1 Armor. You cannot move while entrenched. You use the Operate action to dismantle the defensive position before being able to move again. Being entrenched also counts as being in Cover.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hand Axe, Mace, Knife, etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Headshot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When a character with this Trait rolls at least two times more Hit results than their Range Target # during a Ranged Attack action, they may use this Trait to make Shaken results count as Bloodied and Bloodied Results count as Out of Action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May re-roll up to two Blank or Determination results during a Melee Attack action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Killshot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Great Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After causing an Out of Action result with a Ranged Attack, you may immediately make an additional Ranged Attack with one Yellow Penalty die.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pierce Results can’t be canceled, Two-Handed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polearm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May use a Ranged Attack action with a Target # of 2 when within 2” of target but not Engaged in Melee. Roll a Melee Test instead of Ranged Test for this Attack.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sharpshooter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Improvised Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may use this Trait when using a Ranged Attack Action. This allows them to adjust one range category up to 4” in either direction. (Short could extend up to 12” or medium could extend down to 4”, etc.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anything not meant to be a weapon that could still hurt someone - table leg, baseball bat, frying pan, etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shield</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gain 1 Red Penalty Die as with Armor Upgrades. If all dice are allocated as Penalty Dice during a Melee Attack Action, + 1 Yellow die</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoot from the Hip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After using a Run action, this character may also use a Ranged Attack Action generating 1 Yellow die.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1st Weapon:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Straps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may equip two weapons. Once during its activation, this character may swap their active weapon as a free action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloodsucker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After inflicting a Bloodied result on an enemy character during a Melee Attack action, a Character may use this Trait to remove one of their Damage Tokens.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Combat Maneuver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After successfully hitting an enemy character during a Melee Attack action, this Trait may be used to push the Defender up to 2” in addition to dealing damage as normal. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deathblow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After causing an Out of Action result during a Melee Attack action, you may immediately make an additional Melee Attack action against another enemy in base contact with the usual penalty for additional attacks.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Defensive Expert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may force their opponent to re-roll any one Regular or Bonus Die during a Melee Attack action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dual Wielding Melee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allows a character to equip two one-handed melee weapons. A character may use this Trait when using a Melee Attack Action to generate a Green die and a Blue die. Alternatively, they may choose to use two seperate Melee Attack actions generating 1 Yellow die each.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Furious Charge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When this character uses the Charge Action, they may activate this Trait to increase their Melee Stat by 1 for the duration of their Activation.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit and Run</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait when they use a Withdraw or Melee Attack action. When Withdrawing, they may immediately use their Run action without rolling an Opposed Test against their opponent. When using a Melee Attack action, they may use a Run action immediately after the combat is resolved.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quick Footed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After a Melee Attack action, this character may move up to 2” while maintaining base contact.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yellow Armor Upgrades:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Movement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Agile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait at the beginning of their activation. The character ignores all difficult terrain penalties for the rest of its activation.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bob and Weave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait when they are declared the Target of a Ranged Attack action. They immediately change their stance from Standing to Prone or move up to 2”. Use the characters new position for the Ranged Attack action. If they are no longer within Line of Sight, the Active character may choose a new target.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ranged Weapon Chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dynamic Entry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may choose not to deploy at the beginning of a Mission. Instead, the controlling player may activate this Trait to deploy this character instead of activating one of its models on the board. The character may be deployed anywhere on the battlefield at least 6” away from any enemy characters. After deploying, the character may either use an action or move.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Short</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fast</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may move an additional two inches any time they move.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trait</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Points</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Characters with this Trait ignore terrain and other characters while moving but may not end their movement on top of other characters or on top of anything the model cannot be set on.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hit the Deck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may change from Prone to Standing or vice versa once per turn at no cost to their movement.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jetpack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait to immediately move up to 8”. This movement ignores all terrain penalties and allows the character to move vertically and horizontally through open air as though they were moving across open ground. The Character must end their movement on surface the model can stand on.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Armor Upgrades:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause and Fire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignore Difficult Terrain for Activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may split its movement before and after its Action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 360" Overwatch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Behemoth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignore Damage effects until after first Out of Action result, then remove all Damage tokens and act normally</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blood Sucker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may be deployed anywhere on the battlefield more than 12” from an enemy character as long as they are out of Line of Sight. The character may also make an Aptitude Test with a Target # of 3 when deploying. On a success, the character may move up to 4” after all other models have been deployed but before the first turn begins.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remove a Damager Token after causing a Bloodied Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When targeted by a Ranged Attack Action, go Prone or move up to 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stay Low</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait at the beginning of their activation. They may then move at full speed while prone for the rest of their activation.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Overwatch does not generate Penalty Dice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After Hitting a Melee target, move them up to 2" away</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use a Melee Attack Action with 1 Yellow after causing an Out of Action Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melee Weapon Chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Force Melee Opponent to re-roll a die</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sealth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait anytime during their Activation. Until the start of this character’s next turn, it is no longer able to be targeted by an enemy character while at long range or while in cover at medium range. Entering short range, making a shooting action, or making an attack action ends this ability immediately. At the start of its next activation, this character may pay 3 Determination to remain in Stealth.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot Armor:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Choose to activate Overwatch or remain on Overwatch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dual Wielding (Melee)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May Equip 2 Melee Weapons, Generate 1 Green and 1 Blue Die for 1 Target or 1 Yellow each for 2 Targets</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May Equip 2 Ranged Weapons, Generate 2 Green Dice for 1 Target or 1 Yellow each for 2 Targets</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deploy at least 6" away from enemy characters then move or use an action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spend Activation to gain +1 Armor and Cover. No movement until using an Operate action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move +2" anytime you move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignore Terrain while moving, must end on clear ground</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leadership</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Increase Melee Stat by 1 during a Charge Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait when they use a Recover Action. In addition to the normal Recover Action, automatically remove a Shaken token from a friendly character within 8”.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Increase Damage result when rolling twice as many hits as Target #.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Withdraw without rolling Opposed Melee. May Withdraw immediately after a Charge or Melee Attack action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Points Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot Armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Change stance once per Turn for free</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mark Target</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait anytime during their Activation. Place a Token on an enemy in within line of sight. All Ranged Attack actions targeting that character generate one Green Die. This token may be removed by the targeted character by rolling a successful Aptitude Test with a target number of 3 after the character uses a Run action, changes their stance to Prone, or leaves the Line of Sight of the character that placed it there.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Insignificant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If Shaken or Bloodied, perform Recovery roll during Resolution Phase. If failed, character is knocked Out of Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move 8", ignoring Terrain, must end on clear ground</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Just a Flesh Wound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>General Restrictions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ignore the effects of Shaken tokens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait anytime they use a Recover Action. In addition to the normal Recover action, they may downgrade the damage status of any friendly character in base contact. Bloodied tokens are replaced with Shaken tokens, Shaken tokens are removed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use a Ranged Attack Action with 1 Yellow after causing an Out of Action Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>During a Recovery Action, remove a Shaken token from a Friendly character within 8"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Adept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special</x:t>
-  </x:si>
-  <x:si>
-    <x:t>May spend 1 Determination to count a D result as a Hit or Pierce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Upgrades</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moral Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait gains two determination tokens for each D result when using the Recover action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Aid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>During a Recovery Action, D results can give other characters Determination tokens to spend as Hit or Pierce results</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Bolt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As an Action, make a Ranged Attack using Aptitude, D results may count as Hit or Pierce. T# 3 at any range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound the
- Advance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Compel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait when using the Run action. All friendly characters within 8” may immediately move up to 4”.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As an Action, spend X Determination tokens to move an enemy character within LoS up to X"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Characters may only take one weapon unless a Trait allows them to take two</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Explosion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As an action, choose a point within 12", Target all characters within 2" for Ranged Attack using Aptitude with T# 4, D results can count as Hit or Pierce results</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Healing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As an action, roll an Aptitude test. Use Hit and D results to heal characters within 3". 3 = Bloodied, 2 = Shaken</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ranged Weapon Upgrades:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magical Shield</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Squad Tactics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As an action, create a magical barrier 4" wide and 2" tall. Blocks LoS and Movment. Barrier disappears at start of next activation or when knocked OOA. May be maintained for 1 Determination each activation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait immediately after another friendly character within 8” finishes its activation. This character may then carry out its Activation for the turn. This cannot be used to activate a character twice in a single Turn.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yellow Armor Upgrades</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Place a token on a character within LoS, all Ranged Attacks against that Target, generate 1 Green. Can be removed by an Aptitude Test with T# 3 after Run, leaving LoS, or going Prone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>During a Recovery Action, downgrade Damage on a character in Base Contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gain two Determination tokens for each D result during a Recovery action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roll and Injury die before receiving a Shaken token. On a "+" result ignore the Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If a Character takes two weapons and one is Ranged, make sure the first one is the Ranged Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Split movement before and after an Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Armor Upgrades</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This character ignores the negative modifiers for Bloodied or Shaken results until they are knocked Out of Action the first time. The first time this character is knocked Out of Action remove all damage tokens and continue playing normally. The next time they are knocked Out of Action, the character is removed from the board as usual.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>After a Melee Attack Action, move up to 2" while in base contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melee Weapon Upgrades:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deploy anywhere at least 12" away from enemy and out of LoS. Free Run action after Aptitude Test with Target # 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adjust range category by 4" up or down</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Ranged Attack Action with 1 Yellow after a Run Action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait must make a Recovery roll during the Resolution Phase if they have any damage tokens. This is the same Recovery roll normally done for being Shaken, not an additional one. If this Aptitude test is failed, the character is immediately knocked Out of Action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Characters may not take the same Trait more than once</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carry 2 Weapons, swap as a free action.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound the Advance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When using a Run Action, all friendly characters within 8" may perform a Run Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Activate immediately before or after a friendly character within 8" activates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Followers may take two Traits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move full speed while Prone this Turn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait ignores the penalties of Shaken tokens. Shaken tokens still stack into Bloodied and can still be gotten rid of through normal means.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stealth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannot be targeted while at Long range or while in Cover at Medium range. Maintain next turn for 3 Determination</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Undead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2nd Weapon:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When knocked Out of Action, roll an Injury die. Cross = Bloodied</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Immediately before receiving a Shaken token, a character may activate this Trait to roll an Injury Die. On a X result, the shaken token is discarded.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heroes may take three Traits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>When a character with this Trait is knocked Out of Action, roll an Injury Die. A cross result means the character remain on the battlfield with a Bloodied Token. Any other result means the character is knocked Out of Action as usual.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Only Heroes may take Plot Armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character with this Trait may spend one Determination Token to count the “D” result on a die as a “Hit” or a “Pierce” during any roll. This may be used multiple times per roll, spending one Determination each time a D result is converted.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Upgrades can be either Blue or Green dice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait when using a Recover action. Any Determination tokens generated by this Recover action may be given to a character within 8”. These tokens may only be used by that character. Each token may be spent by that character to count any “D” result on a future roll as either a “Hit” or a “Pierce”.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait as an Action. When doing so choose a target in the same way as when making a Ranged Attack, then roll an Aptitude Test. Damage results are determined normally except that any D results may be counted as either Hits or Pierces. Use the following Ranged Target Numbers: S: 3 M: 3 L: 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Characters must take at least one Weapon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait as an Action. Choose a target within line of sight and move it X” where X is the number of Determination Tokens spent. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total Armor Upgrades may not exceed 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait as an Action. Choose a point within 12”. Any characters within 2” of this point count as targets for this attack. The character then rolls a seperate Aptitude Test for each target. Damage is determined using normal rules for attacks except that “D” results may be counted as either “Hits” or “Pierces”. The Range Target Number for this attack is always 4.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait as an Action. Roll an Aptitude Test. Any “Hit” or “D” results may be used to remove damage tokens at the following cost: 3 Hit/D = Bloodied, 2 Hit/D = Shaken. This may be used on characters up to 3” away.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A character may activate this Trait as an Action to create a magical barrier that is 4” wide and 2” tall. This barrier blocks line of sight and may not be moved through or climbed over. The barrier lasts until the beginning of this character’s next activation. If the character spends an additional Determination at the beginning of its activation, the barrier remains, otherwise it disappears. If this character is knocked Out of Action, the barrier immediately disappears.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Copy and Paste the data from this calculator into the Form-Fillable PDF Character Card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*Use Semantic Versioning https://semver.org/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>change "1".1.1 when adding new features that will have to be programed in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>change 1."1".1 when adding or deleting row items</x:t>
-  </x:si>
-  <x:si>
-    <x:t>change 1.1."1" when modifying values</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*All TabsDB have to have headers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PointCost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetNumberMelee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetNumberShort</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetNumberMedium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetNumberLong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Armor Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amount of Armor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Point Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yellow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>decimal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weaponCategoryEnum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stringer</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ranged Weapons</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>Trait 1</t>
+  </si>
+  <si>
+    <t>Trait 2</t>
+  </si>
+  <si>
+    <t>Trait 3</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Range Target Numbers</t>
+  </si>
+  <si>
+    <t>Cost in D</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Short 1-8”</t>
+  </si>
+  <si>
+    <t>Medium 8-18”</t>
+  </si>
+  <si>
+    <t>Long 18”+</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Two Handed</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>May re-roll up to 2 Blank Results during a Ranged Attack action</t>
+  </si>
+  <si>
+    <t>When using an Overwatch Action, this character reacts to enemy activity in a full 360 degree arc.</t>
+  </si>
+  <si>
+    <t>Assault Rifle</t>
+  </si>
+  <si>
+    <t>Nerves of Steel</t>
+  </si>
+  <si>
+    <t>May re-roll up to 2 Blank or D results during a Ranged Attack action, Two Handed</t>
+  </si>
+  <si>
+    <t>Dual Wielding (Ranged)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Careful Aim</t>
+  </si>
+  <si>
+    <t>Ignore the penalty for firing shots on Overwatch</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>At Short Range, Pierce Results can’t be cancelled, Two Handed</t>
+  </si>
+  <si>
+    <t>Pistol and Hand Weapon</t>
+  </si>
+  <si>
+    <t>Disciplined Overwatch</t>
+  </si>
+  <si>
+    <t>May be used without a Dual Wielding Trait, counts as a single Weapon choice, Two Handed</t>
+  </si>
+  <si>
+    <t>When using an Overwatch Action, this character may choose whether or not to remove their Overwatch token and fire when an enemy enters their field of view.</t>
+  </si>
+  <si>
+    <t>Melee Weapons</t>
+  </si>
+  <si>
+    <t>Dual Wielding Ranged</t>
+  </si>
+  <si>
+    <t>Allows a character to equip 2 one-handed ranged weapons. A character may use this Trait to fire both weapons as a single Ranged Attack action at one target generating two Green Bonus dice. Alternatively, they may be fired at two separate targets in which case each shot is resolved as a separate Ranged Attack Action each generating one Yellow Penalty die.</t>
+  </si>
+  <si>
+    <t>Hand Weapon</t>
+  </si>
+  <si>
+    <t>Entrench</t>
+  </si>
+  <si>
+    <t>Spend an entire activation (uses both your movement and your action) to set up a defensive position, gaining +1 Armor. You cannot move while entrenched. You use the Operate action to dismantle the defensive position before being able to move again. Being entrenched also counts as being in Cover.</t>
+  </si>
+  <si>
+    <t>Hand Axe, Mace, Knife, etc</t>
+  </si>
+  <si>
+    <t>Headshot</t>
+  </si>
+  <si>
+    <t>When a character with this Trait rolls at least two times more Hit results than their Range Target # during a Ranged Attack action, they may use this Trait to make Shaken results count as Bloodied and Bloodied Results count as Out of Action.</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>May re-roll up to two Blank or Determination results during a Melee Attack action</t>
+  </si>
+  <si>
+    <t>Killshot</t>
+  </si>
+  <si>
+    <t>Great Weapon</t>
+  </si>
+  <si>
+    <t>After causing an Out of Action result with a Ranged Attack, you may immediately make an additional Ranged Attack with one Yellow Penalty die.</t>
+  </si>
+  <si>
+    <t>Pierce Results can’t be canceled, Two-Handed</t>
+  </si>
+  <si>
+    <t>Polearm</t>
+  </si>
+  <si>
+    <t>May use a Ranged Attack action with a Target # of 2 when within 2” of target but not Engaged in Melee. Roll a Melee Test instead of Ranged Test for this Attack.</t>
+  </si>
+  <si>
+    <t>Sharpshooter</t>
+  </si>
+  <si>
+    <t>Improvised Weapon</t>
+  </si>
+  <si>
+    <t>A character may use this Trait when using a Ranged Attack Action. This allows them to adjust one range category up to 4” in either direction. (Short could extend up to 12” or medium could extend down to 4”, etc.)</t>
+  </si>
+  <si>
+    <t>Anything not meant to be a weapon that could still hurt someone - table leg, baseball bat, frying pan, etc</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Gain 1 Red Penalty Die as with Armor Upgrades. If all dice are allocated as Penalty Dice during a Melee Attack Action, + 1 Yellow die</t>
+  </si>
+  <si>
+    <t>Shoot from the Hip</t>
+  </si>
+  <si>
+    <t>After using a Run action, this character may also use a Ranged Attack Action generating 1 Yellow die.</t>
+  </si>
+  <si>
+    <t>1st Weapon:</t>
+  </si>
+  <si>
+    <t>Shoulder Straps</t>
+  </si>
+  <si>
+    <t>A character with this Trait may equip two weapons. Once during its activation, this character may swap their active weapon as a free action.</t>
+  </si>
+  <si>
+    <t>Bloodsucker</t>
+  </si>
+  <si>
+    <t>After inflicting a Bloodied result on an enemy character during a Melee Attack action, a Character may use this Trait to remove one of their Damage Tokens.</t>
+  </si>
+  <si>
+    <t>Combat Maneuver</t>
+  </si>
+  <si>
+    <t>After successfully hitting an enemy character during a Melee Attack action, this Trait may be used to push the Defender up to 2” in addition to dealing damage as normal. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</t>
+  </si>
+  <si>
+    <t>Deathblow</t>
+  </si>
+  <si>
+    <t>After causing an Out of Action result during a Melee Attack action, you may immediately make an additional Melee Attack action against another enemy in base contact with the usual penalty for additional attacks.</t>
+  </si>
+  <si>
+    <t>Defensive Expert</t>
+  </si>
+  <si>
+    <t>A character with this Trait may force their opponent to re-roll any one Regular or Bonus Die during a Melee Attack action.</t>
+  </si>
+  <si>
+    <t>Dual Wielding Melee</t>
+  </si>
+  <si>
+    <t>Allows a character to equip two one-handed melee weapons. A character may use this Trait when using a Melee Attack Action to generate a Green die and a Blue die. Alternatively, they may choose to use two seperate Melee Attack actions generating 1 Yellow die each.</t>
+  </si>
+  <si>
+    <t>Furious Charge</t>
+  </si>
+  <si>
+    <t>When this character uses the Charge Action, they may activate this Trait to increase their Melee Stat by 1 for the duration of their Activation.</t>
+  </si>
+  <si>
+    <t>Hit and Run</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait when they use a Withdraw or Melee Attack action. When Withdrawing, they may immediately use their Run action without rolling an Opposed Test against their opponent. When using a Melee Attack action, they may use a Run action immediately after the combat is resolved.</t>
+  </si>
+  <si>
+    <t>Quick Footed</t>
+  </si>
+  <si>
+    <t>After a Melee Attack action, this character may move up to 2” while maintaining base contact.</t>
+  </si>
+  <si>
+    <t>Yellow Armor Upgrades:</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait at the beginning of their activation. The character ignores all difficult terrain penalties for the rest of its activation.</t>
+  </si>
+  <si>
+    <t>Bob and Weave</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait when they are declared the Target of a Ranged Attack action. They immediately change their stance from Standing to Prone or move up to 2”. Use the characters new position for the Ranged Attack action. If they are no longer within Line of Sight, the Active character may choose a new target.</t>
+  </si>
+  <si>
+    <t>Ranged Weapon Chart</t>
+  </si>
+  <si>
+    <t>Dynamic Entry</t>
+  </si>
+  <si>
+    <t>A character with this Trait may choose not to deploy at the beginning of a Mission. Instead, the controlling player may activate this Trait to deploy this character instead of activating one of its models on the board. The character may be deployed anywhere on the battlefield at least 6” away from any enemy characters. After deploying, the character may either use an action or move.</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>A character with this Trait may move an additional two inches any time they move.</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Characters with this Trait ignore terrain and other characters while moving but may not end their movement on top of other characters or on top of anything the model cannot be set on.</t>
+  </si>
+  <si>
+    <t>Hit the Deck</t>
+  </si>
+  <si>
+    <t>A character with this Trait may change from Prone to Standing or vice versa once per turn at no cost to their movement.</t>
+  </si>
+  <si>
+    <t>Jetpack</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait to immediately move up to 8”. This movement ignores all terrain penalties and allows the character to move vertically and horizontally through open air as though they were moving across open ground. The Character must end their movement on surface the model can stand on.</t>
+  </si>
+  <si>
+    <t>Red Armor Upgrades:</t>
+  </si>
+  <si>
+    <t>Pause and Fire</t>
+  </si>
+  <si>
+    <t>Ignore Difficult Terrain for Activation</t>
+  </si>
+  <si>
+    <t>A character with this Trait may split its movement before and after its Action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 360" Overwatch</t>
+  </si>
+  <si>
+    <t>Behemoth</t>
+  </si>
+  <si>
+    <t>Ignore Damage effects until after first Out of Action result, then remove all Damage tokens and act normally</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Blood Sucker</t>
+  </si>
+  <si>
+    <t>A character with this Trait may be deployed anywhere on the battlefield more than 12” from an enemy character as long as they are out of Line of Sight. The character may also make an Aptitude Test with a Target # of 3 when deploying. On a success, the character may move up to 4” after all other models have been deployed but before the first turn begins.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Remove a Damager Token after causing a Bloodied Result</t>
+  </si>
+  <si>
+    <t>When targeted by a Ranged Attack Action, go Prone or move up to 2"</t>
+  </si>
+  <si>
+    <t>Stay Low</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait at the beginning of their activation. They may then move at full speed while prone for the rest of their activation.</t>
+  </si>
+  <si>
+    <t>Overwatch does not generate Penalty Dice</t>
+  </si>
+  <si>
+    <t>After Hitting a Melee target, move them up to 2" away</t>
+  </si>
+  <si>
+    <t>Use a Melee Attack Action with 1 Yellow after causing an Out of Action Result</t>
+  </si>
+  <si>
+    <t>Melee Weapon Chart</t>
+  </si>
+  <si>
+    <t>Force Melee Opponent to re-roll a die</t>
+  </si>
+  <si>
+    <t>Sealth</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait anytime during their Activation. Until the start of this character’s next turn, it is no longer able to be targeted by an enemy character while at long range or while in cover at medium range. Entering short range, making a shooting action, or making an attack action ends this ability immediately. At the start of its next activation, this character may pay 3 Determination to remain in Stealth.</t>
+  </si>
+  <si>
+    <t>Plot Armor:</t>
+  </si>
+  <si>
+    <t>Choose to activate Overwatch or remain on Overwatch</t>
+  </si>
+  <si>
+    <t>Dual Wielding (Melee)</t>
+  </si>
+  <si>
+    <t>May Equip 2 Melee Weapons, Generate 1 Green and 1 Blue Die for 1 Target or 1 Yellow each for 2 Targets</t>
+  </si>
+  <si>
+    <t>May Equip 2 Ranged Weapons, Generate 2 Green Dice for 1 Target or 1 Yellow each for 2 Targets</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Deploy at least 6" away from enemy characters then move or use an action</t>
+  </si>
+  <si>
+    <t>Spend Activation to gain +1 Armor and Cover. No movement until using an Operate action.</t>
+  </si>
+  <si>
+    <t>Move +2" anytime you move</t>
+  </si>
+  <si>
+    <t>Ignore Terrain while moving, must end on clear ground</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Increase Melee Stat by 1 during a Charge Action</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait when they use a Recover Action. In addition to the normal Recover Action, automatically remove a Shaken token from a friendly character within 8”.</t>
+  </si>
+  <si>
+    <t>Increase Damage result when rolling twice as many hits as Target #.</t>
+  </si>
+  <si>
+    <t>Withdraw without rolling Opposed Melee. May Withdraw immediately after a Charge or Melee Attack action</t>
+  </si>
+  <si>
+    <t>Points Cost</t>
+  </si>
+  <si>
+    <t>Plot Armor</t>
+  </si>
+  <si>
+    <t>Change stance once per Turn for free</t>
+  </si>
+  <si>
+    <t>Mark Target</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait anytime during their Activation. Place a Token on an enemy in within line of sight. All Ranged Attack actions targeting that character generate one Green Die. This token may be removed by the targeted character by rolling a successful Aptitude Test with a target number of 3 after the character uses a Run action, changes their stance to Prone, or leaves the Line of Sight of the character that placed it there.</t>
+  </si>
+  <si>
+    <t>Insignificant</t>
+  </si>
+  <si>
+    <t>If Shaken or Bloodied, perform Recovery roll during Resolution Phase. If failed, character is knocked Out of Action</t>
+  </si>
+  <si>
+    <t>Move 8", ignoring Terrain, must end on clear ground</t>
+  </si>
+  <si>
+    <t>Just a Flesh Wound</t>
+  </si>
+  <si>
+    <t>General Restrictions</t>
+  </si>
+  <si>
+    <t>Ignore the effects of Shaken tokens</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait anytime they use a Recover Action. In addition to the normal Recover action, they may downgrade the damage status of any friendly character in base contact. Bloodied tokens are replaced with Shaken tokens, Shaken tokens are removed.</t>
+  </si>
+  <si>
+    <t>Use a Ranged Attack Action with 1 Yellow after causing an Out of Action Result</t>
+  </si>
+  <si>
+    <t>During a Recovery Action, remove a Shaken token from a Friendly character within 8"</t>
+  </si>
+  <si>
+    <t>Magical Adept</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>May spend 1 Determination to count a D result as a Hit or Pierce</t>
+  </si>
+  <si>
+    <t>Weapon Upgrades</t>
+  </si>
+  <si>
+    <t>Moral Support</t>
+  </si>
+  <si>
+    <t>A character with this Trait gains two determination tokens for each D result when using the Recover action.</t>
+  </si>
+  <si>
+    <t>Magical Aid</t>
+  </si>
+  <si>
+    <t>During a Recovery Action, D results can give other characters Determination tokens to spend as Hit or Pierce results</t>
+  </si>
+  <si>
+    <t>Magical Bolt</t>
+  </si>
+  <si>
+    <t>As an Action, make a Ranged Attack using Aptitude, D results may count as Hit or Pierce. T# 3 at any range</t>
+  </si>
+  <si>
+    <t>Sound the
+ Advance</t>
+  </si>
+  <si>
+    <t>Magical Compel</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait when using the Run action. All friendly characters within 8” may immediately move up to 4”.</t>
+  </si>
+  <si>
+    <t>As an Action, spend X Determination tokens to move an enemy character within LoS up to X"</t>
+  </si>
+  <si>
+    <t>Characters may only take one weapon unless a Trait allows them to take two</t>
+  </si>
+  <si>
+    <t>Magical Explosion</t>
+  </si>
+  <si>
+    <t>As an action, choose a point within 12", Target all characters within 2" for Ranged Attack using Aptitude with T# 4, D results can count as Hit or Pierce results</t>
+  </si>
+  <si>
+    <t>Magical Healing</t>
+  </si>
+  <si>
+    <t>As an action, roll an Aptitude test. Use Hit and D results to heal characters within 3". 3 = Bloodied, 2 = Shaken</t>
+  </si>
+  <si>
+    <t>Ranged Weapon Upgrades:</t>
+  </si>
+  <si>
+    <t>Magical Shield</t>
+  </si>
+  <si>
+    <t>Squad Tactics</t>
+  </si>
+  <si>
+    <t>As an action, create a magical barrier 4" wide and 2" tall. Blocks LoS and Movment. Barrier disappears at start of next activation or when knocked OOA. May be maintained for 1 Determination each activation</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait immediately after another friendly character within 8” finishes its activation. This character may then carry out its Activation for the turn. This cannot be used to activate a character twice in a single Turn.</t>
+  </si>
+  <si>
+    <t>Yellow Armor Upgrades</t>
+  </si>
+  <si>
+    <t>Place a token on a character within LoS, all Ranged Attacks against that Target, generate 1 Green. Can be removed by an Aptitude Test with T# 3 after Run, leaving LoS, or going Prone</t>
+  </si>
+  <si>
+    <t>During a Recovery Action, downgrade Damage on a character in Base Contact</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Gain two Determination tokens for each D result during a Recovery action</t>
+  </si>
+  <si>
+    <t>Roll and Injury die before receiving a Shaken token. On a "+" result ignore the Damage</t>
+  </si>
+  <si>
+    <t>If a Character takes two weapons and one is Ranged, make sure the first one is the Ranged Weapon</t>
+  </si>
+  <si>
+    <t>Split movement before and after an Action</t>
+  </si>
+  <si>
+    <t>Red Armor Upgrades</t>
+  </si>
+  <si>
+    <t>This character ignores the negative modifiers for Bloodied or Shaken results until they are knocked Out of Action the first time. The first time this character is knocked Out of Action remove all damage tokens and continue playing normally. The next time they are knocked Out of Action, the character is removed from the board as usual.</t>
+  </si>
+  <si>
+    <t>After a Melee Attack Action, move up to 2" while in base contact</t>
+  </si>
+  <si>
+    <t>Melee Weapon Upgrades:</t>
+  </si>
+  <si>
+    <t>Deploy anywhere at least 12" away from enemy and out of LoS. Free Run action after Aptitude Test with Target # 3</t>
+  </si>
+  <si>
+    <t>Adjust range category by 4" up or down</t>
+  </si>
+  <si>
+    <t>Use Ranged Attack Action with 1 Yellow after a Run Action.</t>
+  </si>
+  <si>
+    <t>A character with this Trait must make a Recovery roll during the Resolution Phase if they have any damage tokens. This is the same Recovery roll normally done for being Shaken, not an additional one. If this Aptitude test is failed, the character is immediately knocked Out of Action.</t>
+  </si>
+  <si>
+    <t>Characters may not take the same Trait more than once</t>
+  </si>
+  <si>
+    <t>Carry 2 Weapons, swap as a free action.</t>
+  </si>
+  <si>
+    <t>Sound the Advance</t>
+  </si>
+  <si>
+    <t>When using a Run Action, all friendly characters within 8" may perform a Run Action</t>
+  </si>
+  <si>
+    <t>Activate immediately before or after a friendly character within 8" activates</t>
+  </si>
+  <si>
+    <t>Followers may take two Traits</t>
+  </si>
+  <si>
+    <t>Move full speed while Prone this Turn</t>
+  </si>
+  <si>
+    <t>A character with this Trait ignores the penalties of Shaken tokens. Shaken tokens still stack into Bloodied and can still be gotten rid of through normal means.</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Cannot be targeted while at Long range or while in Cover at Medium range. Maintain next turn for 3 Determination</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>2nd Weapon:</t>
+  </si>
+  <si>
+    <t>When knocked Out of Action, roll an Injury die. Cross = Bloodied</t>
+  </si>
+  <si>
+    <t>Immediately before receiving a Shaken token, a character may activate this Trait to roll an Injury Die. On a X result, the shaken token is discarded.</t>
+  </si>
+  <si>
+    <t>Heroes may take three Traits</t>
+  </si>
+  <si>
+    <t>When a character with this Trait is knocked Out of Action, roll an Injury Die. A cross result means the character remain on the battlfield with a Bloodied Token. Any other result means the character is knocked Out of Action as usual.</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Only Heroes may take Plot Armor</t>
+  </si>
+  <si>
+    <t>A character with this Trait may spend one Determination Token to count the “D” result on a die as a “Hit” or a “Pierce” during any roll. This may be used multiple times per roll, spending one Determination each time a D result is converted.</t>
+  </si>
+  <si>
+    <t>Weapon Upgrades can be either Blue or Green dice</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait when using a Recover action. Any Determination tokens generated by this Recover action may be given to a character within 8”. These tokens may only be used by that character. Each token may be spent by that character to count any “D” result on a future roll as either a “Hit” or a “Pierce”.</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait as an Action. When doing so choose a target in the same way as when making a Ranged Attack, then roll an Aptitude Test. Damage results are determined normally except that any D results may be counted as either Hits or Pierces. Use the following Ranged Target Numbers: S: 3 M: 3 L: 3</t>
+  </si>
+  <si>
+    <t>Characters must take at least one Weapon</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait as an Action. Choose a target within line of sight and move it X” where X is the number of Determination Tokens spent. If this would cause that character to move more than half of its base over an edge, the character falls and lands prone at the bottom. If the height of the fall was ≥2” high the character must roll two Injury Dice. Two N’s cause the character to become Bloodied, and an NS or SS cause the character to become Shaken.</t>
+  </si>
+  <si>
+    <t>Total Armor Upgrades may not exceed 3</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait as an Action. Choose a point within 12”. Any characters within 2” of this point count as targets for this attack. The character then rolls a seperate Aptitude Test for each target. Damage is determined using normal rules for attacks except that “D” results may be counted as either “Hits” or “Pierces”. The Range Target Number for this attack is always 4.</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait as an Action. Roll an Aptitude Test. Any “Hit” or “D” results may be used to remove damage tokens at the following cost: 3 Hit/D = Bloodied, 2 Hit/D = Shaken. This may be used on characters up to 3” away.</t>
+  </si>
+  <si>
+    <t>A character may activate this Trait as an Action to create a magical barrier that is 4” wide and 2” tall. This barrier blocks line of sight and may not be moved through or climbed over. The barrier lasts until the beginning of this character’s next activation. If the character spends an additional Determination at the beginning of its activation, the barrier remains, otherwise it disappears. If this character is knocked Out of Action, the barrier immediately disappears.</t>
+  </si>
+  <si>
+    <t>Copy and Paste the data from this calculator into the Form-Fillable PDF Character Card</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>*Use Semantic Versioning https://semver.org/</t>
+  </si>
+  <si>
+    <t>change "1".1.1 when adding new features that will have to be programed in</t>
+  </si>
+  <si>
+    <t>change 1."1".1 when adding or deleting row items</t>
+  </si>
+  <si>
+    <t>change 1.1."1" when modifying values</t>
+  </si>
+  <si>
+    <t>*All TabsDB have to have headers</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PointCost</t>
+  </si>
+  <si>
+    <t>TargetNumberMelee</t>
+  </si>
+  <si>
+    <t>TargetNumberShort</t>
+  </si>
+  <si>
+    <t>TargetNumberMedium</t>
+  </si>
+  <si>
+    <t>TargetNumberLong</t>
+  </si>
+  <si>
+    <t>Armor Type</t>
+  </si>
+  <si>
+    <t>Amount of Armor</t>
+  </si>
+  <si>
+    <t>Point Cost</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>weaponCategoryEnum</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>stringer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,6 +1289,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1302,9 +1305,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2213,7 +2214,9 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2331,7 +2334,7 @@
       </c>
       <c r="I4" s="39">
         <f>10+SUM(B4:H4)+C5+C14+SUM(I6:I8)+SUM(C11:C12)+SUM(C20:C21)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="40"/>
     </row>
@@ -2376,11 +2379,11 @@
         <v>86</v>
       </c>
       <c r="H6" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="52">
         <f>VLOOKUP(H6,Tables!$D$37:$E$40,2,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(SUM(H6:H7)&gt;3, "Too Many Armor Upgrades", IF(SUM(H6:H7)&lt;3, "Max 3 Armor Upgrades"))</f>
@@ -5669,13 +5672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -5700,12 +5703,12 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -6047,13 +6050,13 @@
       <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="31"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -6078,12 +6081,12 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="31"/>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -11089,1845 +11092,1845 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="0" summaryRight="0"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:Z69"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <x:cols>
-    <x:col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <x:col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <x:col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <x:col min="12" max="12" width="22" customWidth="1"/>
-    <x:col min="13" max="13" width="171.28515625" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A1" s="1"/>
-      <x:c r="B1" s="54" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C1" s="1"/>
-      <x:c r="D1" s="1"/>
-      <x:c r="E1" s="1"/>
-      <x:c r="F1" s="1"/>
-      <x:c r="G1" s="1"/>
-      <x:c r="H1" s="1"/>
-      <x:c r="I1" s="1"/>
-      <x:c r="J1" s="1"/>
-    </x:row>
-    <x:row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A2" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B2" s="56" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C2" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D2" s="55" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E2" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F2" s="55" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G2" s="55" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="H2" s="55" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I2" s="56" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J2" s="55" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="L2" s="55" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="M2" s="57" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A3" s="59">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C3" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D3" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E3" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F3" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="57" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H3" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="63"/>
-      <x:c r="J3" s="61"/>
-      <x:c r="L3" s="57" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A4" s="59">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F4" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G4" s="54" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H4" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I4" s="63">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J4" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="54" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="M4" s="64" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A5" s="59">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D5" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F5" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G5" s="54" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H5" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I5" s="63">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J5" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L5" s="54" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M5" s="64" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A6" s="59">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="61">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D6" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E6" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F6" s="61">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G6" s="54" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="H6" s="61">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I6" s="63">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J6" s="61">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L6" s="54" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="M6" s="64" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A7" s="59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="61">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E7" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F7" s="61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G7" s="54" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H7" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I7" s="66"/>
-      <x:c r="L7" s="54" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="M7" s="64" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A8" s="59">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B8" s="61">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D8" s="61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="1">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F8" s="61">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G8" s="54" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H8" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I8" s="66"/>
-      <x:c r="L8" s="54" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="M8" s="67" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A9" s="59">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B9" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E9" s="1">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F9" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G9" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H9" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I9" s="66"/>
-      <x:c r="L9" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="M9" s="64" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A10" s="59">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B10" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D10" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E10" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F10" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G10" s="57" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="H10" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I10" s="66"/>
-      <x:c r="L10" s="57" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="M10" s="64" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="G11" s="54" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H11" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L11" s="54" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M11" s="64" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="B12" s="57" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G12" s="54" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H12" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L12" s="54" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="M12" s="64" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <x:c r="A13" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B13" s="56" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C13" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D13" s="55" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E13" s="55" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F13" s="55" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G13" s="54" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H13" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I13" s="56" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J13" s="55" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="L13" s="54" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M13" s="64" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:13" ht="12.75">
-      <x:c r="A14" s="59">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B14" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D14" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E14" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F14" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G14" s="54" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H14" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I14" s="63"/>
-      <x:c r="J14" s="61"/>
-      <x:c r="L14" s="54" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="M14" s="64" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:13" ht="12.75">
-      <x:c r="A15" s="59">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B15" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C15" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D15" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="1">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F15" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="54" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H15" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I15" s="63">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J15" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L15" s="54" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M15" s="64" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:13" ht="12.75">
-      <x:c r="A16" s="59">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B16" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C16" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E16" s="1">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F16" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G16" s="54" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="H16" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I16" s="63">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J16" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L16" s="54" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="M16" s="64" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:13" ht="12.75">
-      <x:c r="A17" s="59">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B17" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C17" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D17" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E17" s="1">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F17" s="61">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G17" s="54" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H17" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I17" s="63">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J17" s="61">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L17" s="54" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M17" s="64" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:13" ht="12.75">
-      <x:c r="A18" s="59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B18" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C18" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D18" s="61">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E18" s="1">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F18" s="61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G18" s="54" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H18" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L18" s="54" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="M18" s="64" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:13" ht="12.75">
-      <x:c r="A19" s="59">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B19" s="61">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C19" s="1">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D19" s="61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E19" s="1">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F19" s="61">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G19" s="54" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H19" s="61">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="L19" s="54" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M19" s="64" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:13" ht="12.75">
-      <x:c r="A20" s="59">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B20" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C20" s="1">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D20" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E20" s="1">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F20" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G20" s="54" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H20" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L20" s="54" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M20" s="64" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:13" ht="12.75">
-      <x:c r="A21" s="59">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B21" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C21" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D21" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E21" s="1">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F21" s="61" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G21" s="57" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H21" s="61">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="L21" s="57" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="M21" s="64" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:13" ht="12.75">
-      <x:c r="G22" s="54" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H22" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L22" s="54" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="M22" s="64" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:13" ht="12.75">
-      <x:c r="A23" s="55" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B23" s="55" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D23" s="55" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E23" s="56" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G23" s="54" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H23" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L23" s="54" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="M23" s="64" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:13" ht="12.75">
-      <x:c r="A24" s="61" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B24" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D24" s="71">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E24" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G24" s="54" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="H24" s="61">
-        <x:v>-5</x:v>
-      </x:c>
-      <x:c r="L24" s="54" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="M24" s="64" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:13" ht="12.75">
-      <x:c r="A25" s="71" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B25" s="70">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D25" s="61">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E25" s="70">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G25" s="54" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H25" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L25" s="54" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="M25" s="64" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:13" ht="12.75">
-      <x:c r="A26" s="71" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B26" s="70">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D26" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E26" s="70">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G26" s="54" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="H26" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L26" s="54" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="M26" s="64" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:13" ht="12.75">
-      <x:c r="A27" s="71" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B27" s="70">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D27" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E27" s="70">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G27" s="57" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H27" s="61">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L27" s="57" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="M27" s="64" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:13" ht="12.75">
-      <x:c r="A28" s="61" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B28" s="70">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="D28" s="61">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E28" s="70">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G28" s="54" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="H28" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L28" s="54" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M28" s="64" t="s">
-        <x:v>160</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:13" ht="12.75">
-      <x:c r="A29" s="71" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G29" s="54" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H29" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L29" s="54" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="M29" s="64" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:13" ht="12.75">
-      <x:c r="A30" s="71" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B30" s="70">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D30" s="73" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="E30" s="56" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G30" s="54" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="H30" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L30" s="54" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="M30" s="64" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:13" ht="12.75">
-      <x:c r="A31" s="71" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B31" s="70">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D31" s="71">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E31" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G31" s="54" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="H31" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L31" s="54" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="M31" s="64" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:13" ht="12.75">
-      <x:c r="A32" s="71" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B32" s="70">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D32" s="71">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E32" s="70">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G32" s="54" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="H32" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L32" s="54" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="M32" s="64" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:13" ht="12.75">
-      <x:c r="A33" s="71" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B33" s="70">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D33" s="71">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E33" s="70">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G33" s="54" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="H33" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L33" s="54" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="M33" s="64" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:13" ht="12.75">
-      <x:c r="A34" s="71" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B34" s="70">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D34" s="71">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E34" s="70">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G34" s="54" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="H34" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L34" s="54" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="M34" s="64" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:13" ht="12.75">
-      <x:c r="A35" s="71" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B35" s="70">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G35" s="54" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="H35" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L35" s="54" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="M35" s="64" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:13" ht="12.75">
-      <x:c r="A36" s="71" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B36" s="70">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D36" s="55" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="E36" s="56" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G36" s="54" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H36" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L36" s="54" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="M36" s="64" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:13" ht="12.75">
-      <x:c r="A37" s="71" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B37" s="70">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D37" s="71">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E37" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G37" s="54" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="H37" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L37" s="54" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="M37" s="64" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:13" ht="12.75">
-      <x:c r="D38" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E38" s="63">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G38" s="54" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="H38" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L38" s="54" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="M38" s="64" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:13" ht="12.75">
-      <x:c r="D39" s="1">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E39" s="63">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G39" s="54" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H39" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L39" s="54" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M39" s="64" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:13" ht="12.75">
-      <x:c r="D40" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E40" s="63">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G40" s="54" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H40" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L40" s="54" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="M40" s="64" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:13" ht="12.75">
-      <x:c r="D41" s="55" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="E41" s="56" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="G41" s="54" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H41" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L41" s="54" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="M41" s="64" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:13" ht="12.75">
-      <x:c r="D42" s="71">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E42" s="70">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G42" s="54" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="H42" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L42" s="54" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="M42" s="64" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:13" ht="12.75">
-      <x:c r="D43" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E43" s="63">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G43" s="54" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H43" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L43" s="54" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="M43" s="64" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:13" ht="12.75">
-      <x:c r="D44" s="1">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E44" s="63">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G44" s="54" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H44" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L44" s="54" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="M44" s="64" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:13" ht="12.75">
-      <x:c r="D45" s="1">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E45" s="63">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G45" s="54" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H45" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L45" s="54" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="M45" s="64" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:13" ht="12.75">
-      <x:c r="C46" s="1"/>
-      <x:c r="D46" s="1"/>
-      <x:c r="E46" s="1"/>
-      <x:c r="F46" s="1"/>
-      <x:c r="G46" s="54" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="H46" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L46" s="54" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="M46" s="64" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:13" ht="12.75">
-      <x:c r="C47" s="61"/>
-      <x:c r="F47" s="61"/>
-      <x:c r="G47" s="54" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="H47" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L47" s="54" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="M47" s="64" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:13" ht="12.75">
-      <x:c r="C48" s="61"/>
-      <x:c r="F48" s="61"/>
-      <x:c r="G48" s="54" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="H48" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L48" s="54" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="M48" s="64" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:26" ht="12.75">
-      <x:c r="C49" s="61"/>
-      <x:c r="F49" s="61"/>
-      <x:c r="G49" s="54" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="H49" s="61">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L49" s="54" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="M49" s="64" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:26" ht="12.75">
-      <x:c r="C50" s="61"/>
-      <x:c r="F50" s="61"/>
-      <x:c r="G50" s="54" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="H50" s="61">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L50" s="54" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="M50" s="67" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:26" ht="12.75">
-      <x:c r="C51" s="61"/>
-      <x:c r="F51" s="61"/>
-    </x:row>
-    <x:row r="52" spans="1:26" ht="12.75">
-      <x:c r="C52" s="61"/>
-      <x:c r="F52" s="61"/>
-    </x:row>
-    <x:row r="53" spans="1:26" ht="12.75">
-      <x:c r="C53" s="61"/>
-      <x:c r="F53" s="61"/>
-    </x:row>
-    <x:row r="54" spans="1:26" ht="12.75">
-      <x:c r="C54" s="61"/>
-      <x:c r="F54" s="61"/>
-    </x:row>
-    <x:row r="55" spans="1:26" ht="12.75">
-      <x:c r="A55" s="81" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B55" s="81" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C55" s="57" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D55" s="57" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E55" s="81" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F55" s="81" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G55" s="57" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H55" s="57" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="I55" s="83" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J55" s="83" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:26" ht="12.75">
-      <x:c r="A56" s="85" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B56" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C56" s="87" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D56" s="88">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E56" s="85" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F56" s="86">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G56" s="87" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H56" s="88">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I56" s="89" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J56" s="90"/>
-    </x:row>
-    <x:row r="57" spans="1:26" ht="12.75">
-      <x:c r="A57" s="85" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B57" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C57" s="87" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D57" s="88">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E57" s="85" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F57" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G57" s="87" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H57" s="88">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I57" s="89" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J57" s="89" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:26" ht="12.75">
-      <x:c r="A58" s="85" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B58" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C58" s="87" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D58" s="88">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E58" s="85" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F58" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G58" s="87" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H58" s="88">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I58" s="89" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J58" s="89" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:26" ht="12.75">
-      <x:c r="A59" s="85" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B59" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C59" s="87" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D59" s="88">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E59" s="85" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F59" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G59" s="87" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H59" s="88">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I59" s="89" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J59" s="89" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:26" ht="12.75">
-      <x:c r="A60" s="85" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B60" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C60" s="87" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D60" s="88">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E60" s="85" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F60" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G60" s="87" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H60" s="88">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I60" s="89" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J60" s="89" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:26" ht="12.75">
-      <x:c r="A61" s="85" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B61" s="86">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C61" s="87" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D61" s="88">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E61" s="85" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F61" s="86">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G61" s="87" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H61" s="88">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I61" s="89" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J61" s="89" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:26" ht="12.75">
-      <x:c r="A62" s="85" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B62" s="86">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C62" s="87" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D62" s="88">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E62" s="85" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F62" s="86">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G62" s="87" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H62" s="88">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I62" s="89" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="J62" s="89" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:26" ht="12.75">
-      <x:c r="A63" s="85" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B63" s="86">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C63" s="87" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D63" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E63" s="85" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F63" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G63" s="87" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H63" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I63" s="89" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J63" s="89" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="K63" s="14"/>
-      <x:c r="L63" s="14"/>
-      <x:c r="M63" s="14"/>
-      <x:c r="N63" s="14"/>
-      <x:c r="O63" s="14"/>
-      <x:c r="P63" s="14"/>
-      <x:c r="Q63" s="14"/>
-      <x:c r="R63" s="14"/>
-      <x:c r="S63" s="14"/>
-      <x:c r="T63" s="14"/>
-      <x:c r="U63" s="14"/>
-      <x:c r="V63" s="14"/>
-      <x:c r="W63" s="14"/>
-      <x:c r="X63" s="14"/>
-      <x:c r="Y63" s="14"/>
-      <x:c r="Z63" s="14"/>
-    </x:row>
-    <x:row r="64" spans="1:26" ht="12.75">
-      <x:c r="A64" s="85" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B64" s="86">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C64" s="87" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D64" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E64" s="85" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F64" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G64" s="87" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H64" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I64" s="89" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="J64" s="89" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:10" ht="12.75">
-      <x:c r="A65" s="85" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B65" s="86">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C65" s="87" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D65" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E65" s="85" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F65" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G65" s="87" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H65" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I65" s="89" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J65" s="89" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:10" ht="12.75">
-      <x:c r="A66" s="85" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B66" s="86">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C66" s="87" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D66" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E66" s="85" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F66" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G66" s="87" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H66" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I66" s="89" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="J66" s="89" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:10" ht="12.75">
-      <x:c r="A67" s="85" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B67" s="86">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C67" s="87" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D67" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E67" s="85" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F67" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G67" s="87" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H67" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I67" s="89" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J67" s="89" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:10" ht="12.75">
-      <x:c r="A68" s="85" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B68" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C68" s="87" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D68" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E68" s="85" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F68" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G68" s="87" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H68" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I68" s="89" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J68" s="89" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:10" ht="12.75">
-      <x:c r="A69" s="85" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B69" s="86" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C69" s="87" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D69" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E69" s="85" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F69" s="85" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G69" s="87" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H69" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I69" s="85" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J69" s="85" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A24:B46"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="171.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A3" s="59">
+        <v>3</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="61">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61"/>
+      <c r="L3" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="59">
+        <v>4</v>
+      </c>
+      <c r="B4" s="61">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="61">
+        <v>2</v>
+      </c>
+      <c r="I4" s="63">
+        <v>1</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="59">
+        <v>5</v>
+      </c>
+      <c r="B5" s="61">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="61">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="61">
+        <v>4</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="61">
+        <v>2</v>
+      </c>
+      <c r="I5" s="63">
+        <v>2</v>
+      </c>
+      <c r="J5" s="61">
+        <v>3</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="59">
+        <v>6</v>
+      </c>
+      <c r="B6" s="61">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="61">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="61">
+        <v>7</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="61">
+        <v>8</v>
+      </c>
+      <c r="I6" s="63">
+        <v>3</v>
+      </c>
+      <c r="J6" s="61">
+        <v>6</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="59">
+        <v>7</v>
+      </c>
+      <c r="B7" s="61">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="61">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="61">
+        <v>9</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="61">
+        <v>3</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="L7" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="59">
+        <v>8</v>
+      </c>
+      <c r="B8" s="61">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="61">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="61">
+        <v>11</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="61">
+        <v>2</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="L8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="59">
+        <v>9</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="61">
+        <v>2</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="L9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="59">
+        <v>10</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="61">
+        <v>2</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="L10" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="G11" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="61">
+        <v>2</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B12" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="61">
+        <v>2</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="61">
+        <v>2</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75">
+      <c r="A14" s="59">
+        <v>3</v>
+      </c>
+      <c r="B14" s="61">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="61">
+        <v>2</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="L14" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75">
+      <c r="A15" s="59">
+        <v>4</v>
+      </c>
+      <c r="B15" s="61">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="61">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="61">
+        <v>2</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75">
+      <c r="A16" s="59">
+        <v>5</v>
+      </c>
+      <c r="B16" s="61">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="61">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="61">
+        <v>4</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="61">
+        <v>2</v>
+      </c>
+      <c r="I16" s="63">
+        <v>2</v>
+      </c>
+      <c r="J16" s="61">
+        <v>3</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.75">
+      <c r="A17" s="59">
+        <v>6</v>
+      </c>
+      <c r="B17" s="61">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="61">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="61">
+        <v>7</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="61">
+        <v>2</v>
+      </c>
+      <c r="I17" s="63">
+        <v>3</v>
+      </c>
+      <c r="J17" s="61">
+        <v>6</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75">
+      <c r="A18" s="59">
+        <v>7</v>
+      </c>
+      <c r="B18" s="61">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="61">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="61">
+        <v>9</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="61">
+        <v>2</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="59">
+        <v>8</v>
+      </c>
+      <c r="B19" s="61">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="61">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="61">
+        <v>11</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="61">
+        <v>5</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="59">
+        <v>9</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="61">
+        <v>2</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75">
+      <c r="A21" s="59">
+        <v>10</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="61">
+        <v>5</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75">
+      <c r="G22" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="61">
+        <v>2</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75">
+      <c r="A23" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="61">
+        <v>2</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="70">
+        <v>0</v>
+      </c>
+      <c r="D24" s="71">
+        <v>0</v>
+      </c>
+      <c r="E24" s="70">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="61">
+        <v>-5</v>
+      </c>
+      <c r="L24" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="70">
+        <v>3</v>
+      </c>
+      <c r="D25" s="61">
+        <v>1</v>
+      </c>
+      <c r="E25" s="70">
+        <v>5</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="61">
+        <v>2</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="70">
+        <v>2</v>
+      </c>
+      <c r="D26" s="61">
+        <v>2</v>
+      </c>
+      <c r="E26" s="70">
+        <v>10</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="61">
+        <v>3</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="70">
+        <v>1</v>
+      </c>
+      <c r="D27" s="61">
+        <v>3</v>
+      </c>
+      <c r="E27" s="70">
+        <v>15</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="61">
+        <v>3</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="70">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="61">
+        <v>4</v>
+      </c>
+      <c r="E28" s="70">
+        <v>20</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="61">
+        <v>2</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="70">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="61">
+        <v>2</v>
+      </c>
+      <c r="L29" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="70">
+        <v>1</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="61">
+        <v>2</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="70">
+        <v>2</v>
+      </c>
+      <c r="D31" s="71">
+        <v>0</v>
+      </c>
+      <c r="E31" s="70">
+        <v>0</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="61">
+        <v>2</v>
+      </c>
+      <c r="L31" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="70">
+        <v>1</v>
+      </c>
+      <c r="D32" s="71">
+        <v>1</v>
+      </c>
+      <c r="E32" s="70">
+        <v>1</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="61">
+        <v>2</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75">
+      <c r="A33" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="70">
+        <v>2</v>
+      </c>
+      <c r="D33" s="71">
+        <v>2</v>
+      </c>
+      <c r="E33" s="70">
+        <v>3</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="61">
+        <v>2</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75">
+      <c r="A34" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="70">
+        <v>3</v>
+      </c>
+      <c r="D34" s="71">
+        <v>3</v>
+      </c>
+      <c r="E34" s="70">
+        <v>5</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="61">
+        <v>2</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75">
+      <c r="A35" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="70">
+        <v>2</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="61">
+        <v>2</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="M35" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75">
+      <c r="A36" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="70">
+        <v>3</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="61">
+        <v>2</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="A37" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="70">
+        <v>2</v>
+      </c>
+      <c r="D37" s="71">
+        <v>0</v>
+      </c>
+      <c r="E37" s="70">
+        <v>0</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="61">
+        <v>2</v>
+      </c>
+      <c r="L37" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="M37" s="64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="63">
+        <v>1</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="61">
+        <v>2</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="63">
+        <v>3</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="61">
+        <v>2</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="63">
+        <v>5</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="61">
+        <v>2</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="D41" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="61">
+        <v>2</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="D42" s="71">
+        <v>0</v>
+      </c>
+      <c r="E42" s="70">
+        <v>0</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="61">
+        <v>2</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M42" s="64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="63">
+        <v>2</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="61">
+        <v>2</v>
+      </c>
+      <c r="L43" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="63">
+        <v>4</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="61">
+        <v>2</v>
+      </c>
+      <c r="L44" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="63">
+        <v>6</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="61">
+        <v>2</v>
+      </c>
+      <c r="L45" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="61">
+        <v>2</v>
+      </c>
+      <c r="L46" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="M46" s="64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75">
+      <c r="C47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="61">
+        <v>2</v>
+      </c>
+      <c r="L47" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="M47" s="64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75">
+      <c r="C48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="61">
+        <v>2</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" s="64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="12.75">
+      <c r="C49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="61">
+        <v>2</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" s="64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="12.75">
+      <c r="C50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50" s="61">
+        <v>6</v>
+      </c>
+      <c r="L50" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="M50" s="67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="12.75">
+      <c r="C51" s="61"/>
+      <c r="F51" s="61"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.75">
+      <c r="C52" s="61"/>
+      <c r="F52" s="61"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.75">
+      <c r="C53" s="61"/>
+      <c r="F53" s="61"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.75">
+      <c r="C54" s="61"/>
+      <c r="F54" s="61"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75">
+      <c r="A55" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="12.75">
+      <c r="A56" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="86">
+        <v>3</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="88">
+        <v>2</v>
+      </c>
+      <c r="E56" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="86">
+        <v>4</v>
+      </c>
+      <c r="G56" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="88">
+        <v>5</v>
+      </c>
+      <c r="I56" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="90"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75">
+      <c r="A57" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="86">
+        <v>3</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="88">
+        <v>2</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="86">
+        <v>3</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="88">
+        <v>4</v>
+      </c>
+      <c r="I57" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="12.75">
+      <c r="A58" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="86">
+        <v>3</v>
+      </c>
+      <c r="C58" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="88">
+        <v>2</v>
+      </c>
+      <c r="E58" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="86">
+        <v>3</v>
+      </c>
+      <c r="G58" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="88">
+        <v>5</v>
+      </c>
+      <c r="I58" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="12.75">
+      <c r="A59" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="86">
+        <v>3</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="88">
+        <v>2</v>
+      </c>
+      <c r="E59" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="86">
+        <v>3</v>
+      </c>
+      <c r="G59" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="88">
+        <v>4</v>
+      </c>
+      <c r="I59" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="12.75">
+      <c r="A60" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="86">
+        <v>3</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="88">
+        <v>4</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="86">
+        <v>3</v>
+      </c>
+      <c r="G60" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="88">
+        <v>2</v>
+      </c>
+      <c r="I60" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="12.75">
+      <c r="A61" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="86">
+        <v>3</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="88">
+        <v>1</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="86">
+        <v>4</v>
+      </c>
+      <c r="G61" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="88">
+        <v>5</v>
+      </c>
+      <c r="I61" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="12.75">
+      <c r="A62" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="86">
+        <v>2</v>
+      </c>
+      <c r="C62" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="88">
+        <v>3</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="86">
+        <v>4</v>
+      </c>
+      <c r="G62" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="88">
+        <v>5</v>
+      </c>
+      <c r="I62" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="12.75">
+      <c r="A63" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="86">
+        <v>1</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75">
+      <c r="A64" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="86">
+        <v>1</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" s="89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75">
+      <c r="A65" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="86">
+        <v>2</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" s="89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75">
+      <c r="A66" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="86">
+        <v>2</v>
+      </c>
+      <c r="C66" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75">
+      <c r="A67" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="86">
+        <v>2</v>
+      </c>
+      <c r="C67" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75">
+      <c r="A68" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75">
+      <c r="A69" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A24:B46"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13174,8 +13177,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13186,7 +13189,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="93" t="s">
         <v>244</v>
       </c>
       <c r="B1" s="78" t="s">
@@ -13200,7 +13203,7 @@
       <c r="A2" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="101">
         <v>0</v>
       </c>
       <c r="C2" s="78">
@@ -13349,28 +13352,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" s="100" customFormat="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:4" s="95" customFormat="1">
+      <c r="A1" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="95" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="94" t="s">
         <v>256</v>
       </c>
       <c r="B2">
@@ -13381,13 +13384,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="94" t="s">
         <v>255</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="95">
         <v>8.9</v>
       </c>
     </row>

--- a/ExcelFileFolder/VanguardDB.xlsx
+++ b/ExcelFileFolder/VanguardDB.xlsx
@@ -1075,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,7 +1289,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1305,7 +1304,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5672,13 +5673,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="2"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -5703,12 +5704,12 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -6050,13 +6051,13 @@
       <c r="Z10" s="16"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="31"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -6081,12 +6082,12 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="31"/>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -13178,7 +13179,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -13189,156 +13190,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="100" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="100" t="s">
         <v>247</v>
       </c>
       <c r="B2" s="101">
         <v>0</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="100">
         <v>1</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="100">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="100">
         <v>2</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="100">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="100">
         <v>3</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="100">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="100">
         <v>4</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="100">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="100">
         <v>0</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="100">
         <v>1</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="100">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="100">
         <v>2</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="100">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="100">
         <v>3</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="100">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="100">
         <v>0</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="100">
         <v>1</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="100">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="100">
         <v>2</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="100">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="100">
         <v>3</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="100">
         <v>6</v>
       </c>
     </row>
@@ -13358,22 +13359,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" s="95" customFormat="1">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:4" s="94" customFormat="1">
+      <c r="A1" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>256</v>
       </c>
       <c r="B2">
@@ -13384,13 +13385,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>255</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="94">
         <v>8.9</v>
       </c>
     </row>
